--- a/InputData/trans/BCDTRtSY/BAU Cargo Dist Transported Relative to Start Yr.xlsx
+++ b/InputData/trans/BCDTRtSY/BAU Cargo Dist Transported Relative to Start Yr.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\deept\Dropbox\EPS\Input Data for India 2.0\trans\BCDTRtSY\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MeganM\Documents\eps-india\InputData\trans\BCDTRtSY\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B41C413-95E3-476A-BC14-B9BEEE2C086D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="742" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="742"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -38,7 +37,7 @@
     <definedName name="ti_tbl_69" localSheetId="5">#REF!</definedName>
     <definedName name="ti_tbl_69">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -437,13 +436,13 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="5">
-    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="166" formatCode="0.0%"/>
-    <numFmt numFmtId="167" formatCode="###0.00_)"/>
-    <numFmt numFmtId="168" formatCode="#,##0_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="0.0%"/>
+    <numFmt numFmtId="165" formatCode="###0.00_)"/>
+    <numFmt numFmtId="166" formatCode="#,##0_)"/>
   </numFmts>
   <fonts count="43">
     <font>
@@ -1108,33 +1107,33 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0">
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="167" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0">
+    <xf numFmtId="165" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="168" fontId="16" fillId="0" borderId="8">
+    <xf numFmtId="166" fontId="16" fillId="0" borderId="8">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="17" fillId="0" borderId="8">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0">
+    <xf numFmtId="165" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1266,7 +1265,7 @@
     <xf numFmtId="49" fontId="17" fillId="0" borderId="8">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="167" fontId="16" fillId="0" borderId="0" applyNumberFormat="0">
+    <xf numFmtId="165" fontId="16" fillId="0" borderId="0" applyNumberFormat="0">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="26" borderId="0">
@@ -1325,7 +1324,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="154"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="153" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="153" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="155" applyFont="1"/>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="155"/>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="155" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1360,162 +1359,162 @@
     <xf numFmtId="0" fontId="2" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="156">
-    <cellStyle name="20% - Accent1 2" xfId="8" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
-    <cellStyle name="20% - Accent2 2" xfId="9" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="20% - Accent3 2" xfId="10" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="20% - Accent4 2" xfId="11" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
-    <cellStyle name="20% - Accent5 2" xfId="12" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
-    <cellStyle name="20% - Accent6 2" xfId="13" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
-    <cellStyle name="40% - Accent1 2" xfId="14" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
-    <cellStyle name="40% - Accent2 2" xfId="15" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
-    <cellStyle name="40% - Accent3 2" xfId="16" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
-    <cellStyle name="40% - Accent4 2" xfId="17" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
-    <cellStyle name="40% - Accent5 2" xfId="18" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
-    <cellStyle name="40% - Accent6 2" xfId="19" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
-    <cellStyle name="60% - Accent1 2" xfId="20" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
-    <cellStyle name="60% - Accent2 2" xfId="21" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
-    <cellStyle name="60% - Accent3 2" xfId="22" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
-    <cellStyle name="60% - Accent4 2" xfId="23" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
-    <cellStyle name="60% - Accent5 2" xfId="24" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
-    <cellStyle name="60% - Accent6 2" xfId="25" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
-    <cellStyle name="Accent1 2" xfId="26" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
-    <cellStyle name="Accent2 2" xfId="27" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
-    <cellStyle name="Accent3 2" xfId="28" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
-    <cellStyle name="Accent4 2" xfId="29" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
-    <cellStyle name="Accent5 2" xfId="30" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
-    <cellStyle name="Accent6 2" xfId="31" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
-    <cellStyle name="Bad 2" xfId="32" xr:uid="{00000000-0005-0000-0000-000018000000}"/>
-    <cellStyle name="Body: normal cell" xfId="4" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
-    <cellStyle name="Body: normal cell 2" xfId="33" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
-    <cellStyle name="Calculation 2" xfId="34" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
-    <cellStyle name="Check Cell 2" xfId="35" xr:uid="{00000000-0005-0000-0000-00001C000000}"/>
-    <cellStyle name="Column heading" xfId="36" xr:uid="{00000000-0005-0000-0000-00001D000000}"/>
-    <cellStyle name="Comma 2" xfId="37" xr:uid="{00000000-0005-0000-0000-00001E000000}"/>
-    <cellStyle name="Comma 2 2" xfId="38" xr:uid="{00000000-0005-0000-0000-00001F000000}"/>
-    <cellStyle name="Comma 3" xfId="39" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
-    <cellStyle name="Comma 4" xfId="40" xr:uid="{00000000-0005-0000-0000-000021000000}"/>
-    <cellStyle name="Comma 5" xfId="41" xr:uid="{00000000-0005-0000-0000-000022000000}"/>
-    <cellStyle name="Comma 6" xfId="42" xr:uid="{00000000-0005-0000-0000-000023000000}"/>
-    <cellStyle name="Comma 7" xfId="43" xr:uid="{00000000-0005-0000-0000-000024000000}"/>
-    <cellStyle name="Comma 8" xfId="44" xr:uid="{00000000-0005-0000-0000-000025000000}"/>
-    <cellStyle name="Corner heading" xfId="45" xr:uid="{00000000-0005-0000-0000-000026000000}"/>
-    <cellStyle name="Currency 2" xfId="46" xr:uid="{00000000-0005-0000-0000-000027000000}"/>
-    <cellStyle name="Currency 3" xfId="47" xr:uid="{00000000-0005-0000-0000-000028000000}"/>
-    <cellStyle name="Currency 3 2" xfId="48" xr:uid="{00000000-0005-0000-0000-000029000000}"/>
-    <cellStyle name="Data" xfId="49" xr:uid="{00000000-0005-0000-0000-00002A000000}"/>
-    <cellStyle name="Data 2" xfId="50" xr:uid="{00000000-0005-0000-0000-00002B000000}"/>
-    <cellStyle name="Data no deci" xfId="51" xr:uid="{00000000-0005-0000-0000-00002C000000}"/>
-    <cellStyle name="Data Superscript" xfId="52" xr:uid="{00000000-0005-0000-0000-00002D000000}"/>
-    <cellStyle name="Data_1-1A-Regular" xfId="53" xr:uid="{00000000-0005-0000-0000-00002E000000}"/>
-    <cellStyle name="Explanatory Text 2" xfId="54" xr:uid="{00000000-0005-0000-0000-00002F000000}"/>
-    <cellStyle name="Font: Calibri, 9pt regular" xfId="6" xr:uid="{00000000-0005-0000-0000-000030000000}"/>
-    <cellStyle name="Font: Calibri, 9pt regular 2" xfId="55" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
-    <cellStyle name="Footnotes: top row" xfId="2" xr:uid="{00000000-0005-0000-0000-000032000000}"/>
-    <cellStyle name="Footnotes: top row 2" xfId="56" xr:uid="{00000000-0005-0000-0000-000033000000}"/>
-    <cellStyle name="Good 2" xfId="57" xr:uid="{00000000-0005-0000-0000-000034000000}"/>
-    <cellStyle name="Header: bottom row" xfId="5" xr:uid="{00000000-0005-0000-0000-000035000000}"/>
-    <cellStyle name="Header: bottom row 2" xfId="58" xr:uid="{00000000-0005-0000-0000-000036000000}"/>
-    <cellStyle name="Heading 1 2" xfId="59" xr:uid="{00000000-0005-0000-0000-000037000000}"/>
-    <cellStyle name="Heading 2 2" xfId="60" xr:uid="{00000000-0005-0000-0000-000038000000}"/>
-    <cellStyle name="Heading 3 2" xfId="61" xr:uid="{00000000-0005-0000-0000-000039000000}"/>
-    <cellStyle name="Heading 4 2" xfId="62" xr:uid="{00000000-0005-0000-0000-00003A000000}"/>
-    <cellStyle name="Hed Side" xfId="63" xr:uid="{00000000-0005-0000-0000-00003B000000}"/>
-    <cellStyle name="Hed Side 2" xfId="64" xr:uid="{00000000-0005-0000-0000-00003C000000}"/>
-    <cellStyle name="Hed Side bold" xfId="65" xr:uid="{00000000-0005-0000-0000-00003D000000}"/>
-    <cellStyle name="Hed Side Indent" xfId="66" xr:uid="{00000000-0005-0000-0000-00003E000000}"/>
-    <cellStyle name="Hed Side Regular" xfId="67" xr:uid="{00000000-0005-0000-0000-00003F000000}"/>
-    <cellStyle name="Hed Side_1-1A-Regular" xfId="68" xr:uid="{00000000-0005-0000-0000-000040000000}"/>
-    <cellStyle name="Hed Top" xfId="69" xr:uid="{00000000-0005-0000-0000-000041000000}"/>
-    <cellStyle name="Hed Top - SECTION" xfId="70" xr:uid="{00000000-0005-0000-0000-000042000000}"/>
-    <cellStyle name="Hed Top_3-new4" xfId="71" xr:uid="{00000000-0005-0000-0000-000043000000}"/>
+    <cellStyle name="20% - Accent1 2" xfId="8"/>
+    <cellStyle name="20% - Accent2 2" xfId="9"/>
+    <cellStyle name="20% - Accent3 2" xfId="10"/>
+    <cellStyle name="20% - Accent4 2" xfId="11"/>
+    <cellStyle name="20% - Accent5 2" xfId="12"/>
+    <cellStyle name="20% - Accent6 2" xfId="13"/>
+    <cellStyle name="40% - Accent1 2" xfId="14"/>
+    <cellStyle name="40% - Accent2 2" xfId="15"/>
+    <cellStyle name="40% - Accent3 2" xfId="16"/>
+    <cellStyle name="40% - Accent4 2" xfId="17"/>
+    <cellStyle name="40% - Accent5 2" xfId="18"/>
+    <cellStyle name="40% - Accent6 2" xfId="19"/>
+    <cellStyle name="60% - Accent1 2" xfId="20"/>
+    <cellStyle name="60% - Accent2 2" xfId="21"/>
+    <cellStyle name="60% - Accent3 2" xfId="22"/>
+    <cellStyle name="60% - Accent4 2" xfId="23"/>
+    <cellStyle name="60% - Accent5 2" xfId="24"/>
+    <cellStyle name="60% - Accent6 2" xfId="25"/>
+    <cellStyle name="Accent1 2" xfId="26"/>
+    <cellStyle name="Accent2 2" xfId="27"/>
+    <cellStyle name="Accent3 2" xfId="28"/>
+    <cellStyle name="Accent4 2" xfId="29"/>
+    <cellStyle name="Accent5 2" xfId="30"/>
+    <cellStyle name="Accent6 2" xfId="31"/>
+    <cellStyle name="Bad 2" xfId="32"/>
+    <cellStyle name="Body: normal cell" xfId="4"/>
+    <cellStyle name="Body: normal cell 2" xfId="33"/>
+    <cellStyle name="Calculation 2" xfId="34"/>
+    <cellStyle name="Check Cell 2" xfId="35"/>
+    <cellStyle name="Column heading" xfId="36"/>
+    <cellStyle name="Comma 2" xfId="37"/>
+    <cellStyle name="Comma 2 2" xfId="38"/>
+    <cellStyle name="Comma 3" xfId="39"/>
+    <cellStyle name="Comma 4" xfId="40"/>
+    <cellStyle name="Comma 5" xfId="41"/>
+    <cellStyle name="Comma 6" xfId="42"/>
+    <cellStyle name="Comma 7" xfId="43"/>
+    <cellStyle name="Comma 8" xfId="44"/>
+    <cellStyle name="Corner heading" xfId="45"/>
+    <cellStyle name="Currency 2" xfId="46"/>
+    <cellStyle name="Currency 3" xfId="47"/>
+    <cellStyle name="Currency 3 2" xfId="48"/>
+    <cellStyle name="Data" xfId="49"/>
+    <cellStyle name="Data 2" xfId="50"/>
+    <cellStyle name="Data no deci" xfId="51"/>
+    <cellStyle name="Data Superscript" xfId="52"/>
+    <cellStyle name="Data_1-1A-Regular" xfId="53"/>
+    <cellStyle name="Explanatory Text 2" xfId="54"/>
+    <cellStyle name="Font: Calibri, 9pt regular" xfId="6"/>
+    <cellStyle name="Font: Calibri, 9pt regular 2" xfId="55"/>
+    <cellStyle name="Footnotes: top row" xfId="2"/>
+    <cellStyle name="Footnotes: top row 2" xfId="56"/>
+    <cellStyle name="Good 2" xfId="57"/>
+    <cellStyle name="Header: bottom row" xfId="5"/>
+    <cellStyle name="Header: bottom row 2" xfId="58"/>
+    <cellStyle name="Heading 1 2" xfId="59"/>
+    <cellStyle name="Heading 2 2" xfId="60"/>
+    <cellStyle name="Heading 3 2" xfId="61"/>
+    <cellStyle name="Heading 4 2" xfId="62"/>
+    <cellStyle name="Hed Side" xfId="63"/>
+    <cellStyle name="Hed Side 2" xfId="64"/>
+    <cellStyle name="Hed Side bold" xfId="65"/>
+    <cellStyle name="Hed Side Indent" xfId="66"/>
+    <cellStyle name="Hed Side Regular" xfId="67"/>
+    <cellStyle name="Hed Side_1-1A-Regular" xfId="68"/>
+    <cellStyle name="Hed Top" xfId="69"/>
+    <cellStyle name="Hed Top - SECTION" xfId="70"/>
+    <cellStyle name="Hed Top_3-new4" xfId="71"/>
     <cellStyle name="Hyperlink" xfId="154" builtinId="8"/>
-    <cellStyle name="Hyperlink 2" xfId="72" xr:uid="{00000000-0005-0000-0000-000045000000}"/>
-    <cellStyle name="Input 2" xfId="73" xr:uid="{00000000-0005-0000-0000-000046000000}"/>
-    <cellStyle name="Linked Cell 2" xfId="74" xr:uid="{00000000-0005-0000-0000-000047000000}"/>
-    <cellStyle name="Neutral 2" xfId="75" xr:uid="{00000000-0005-0000-0000-000048000000}"/>
+    <cellStyle name="Hyperlink 2" xfId="72"/>
+    <cellStyle name="Input 2" xfId="73"/>
+    <cellStyle name="Linked Cell 2" xfId="74"/>
+    <cellStyle name="Neutral 2" xfId="75"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 10" xfId="76" xr:uid="{00000000-0005-0000-0000-00004A000000}"/>
-    <cellStyle name="Normal 11" xfId="77" xr:uid="{00000000-0005-0000-0000-00004B000000}"/>
-    <cellStyle name="Normal 12" xfId="155" xr:uid="{00000000-0005-0000-0000-00004C000000}"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-00004D000000}"/>
-    <cellStyle name="Normal 2 2" xfId="78" xr:uid="{00000000-0005-0000-0000-00004E000000}"/>
-    <cellStyle name="Normal 2 3" xfId="79" xr:uid="{00000000-0005-0000-0000-00004F000000}"/>
-    <cellStyle name="Normal 3" xfId="80" xr:uid="{00000000-0005-0000-0000-000050000000}"/>
-    <cellStyle name="Normal 3 2" xfId="81" xr:uid="{00000000-0005-0000-0000-000051000000}"/>
-    <cellStyle name="Normal 3 2 2" xfId="82" xr:uid="{00000000-0005-0000-0000-000052000000}"/>
-    <cellStyle name="Normal 3 2 2 2" xfId="83" xr:uid="{00000000-0005-0000-0000-000053000000}"/>
-    <cellStyle name="Normal 3 2 3" xfId="84" xr:uid="{00000000-0005-0000-0000-000054000000}"/>
-    <cellStyle name="Normal 3 3" xfId="85" xr:uid="{00000000-0005-0000-0000-000055000000}"/>
-    <cellStyle name="Normal 3 3 2" xfId="86" xr:uid="{00000000-0005-0000-0000-000056000000}"/>
-    <cellStyle name="Normal 3 3 2 2" xfId="87" xr:uid="{00000000-0005-0000-0000-000057000000}"/>
-    <cellStyle name="Normal 3 3 3" xfId="88" xr:uid="{00000000-0005-0000-0000-000058000000}"/>
-    <cellStyle name="Normal 3 4" xfId="89" xr:uid="{00000000-0005-0000-0000-000059000000}"/>
-    <cellStyle name="Normal 3 4 2" xfId="90" xr:uid="{00000000-0005-0000-0000-00005A000000}"/>
-    <cellStyle name="Normal 3 5" xfId="91" xr:uid="{00000000-0005-0000-0000-00005B000000}"/>
-    <cellStyle name="Normal 3 6" xfId="92" xr:uid="{00000000-0005-0000-0000-00005C000000}"/>
-    <cellStyle name="Normal 3 7" xfId="93" xr:uid="{00000000-0005-0000-0000-00005D000000}"/>
-    <cellStyle name="Normal 4" xfId="94" xr:uid="{00000000-0005-0000-0000-00005E000000}"/>
-    <cellStyle name="Normal 4 2" xfId="95" xr:uid="{00000000-0005-0000-0000-00005F000000}"/>
-    <cellStyle name="Normal 4 2 2" xfId="96" xr:uid="{00000000-0005-0000-0000-000060000000}"/>
-    <cellStyle name="Normal 4 2 2 2" xfId="97" xr:uid="{00000000-0005-0000-0000-000061000000}"/>
-    <cellStyle name="Normal 4 2 3" xfId="98" xr:uid="{00000000-0005-0000-0000-000062000000}"/>
-    <cellStyle name="Normal 4 3" xfId="99" xr:uid="{00000000-0005-0000-0000-000063000000}"/>
-    <cellStyle name="Normal 4 3 2" xfId="100" xr:uid="{00000000-0005-0000-0000-000064000000}"/>
-    <cellStyle name="Normal 4 3 2 2" xfId="101" xr:uid="{00000000-0005-0000-0000-000065000000}"/>
-    <cellStyle name="Normal 4 3 3" xfId="102" xr:uid="{00000000-0005-0000-0000-000066000000}"/>
-    <cellStyle name="Normal 4 4" xfId="103" xr:uid="{00000000-0005-0000-0000-000067000000}"/>
-    <cellStyle name="Normal 4 4 2" xfId="104" xr:uid="{00000000-0005-0000-0000-000068000000}"/>
-    <cellStyle name="Normal 4 5" xfId="105" xr:uid="{00000000-0005-0000-0000-000069000000}"/>
-    <cellStyle name="Normal 4 6" xfId="106" xr:uid="{00000000-0005-0000-0000-00006A000000}"/>
-    <cellStyle name="Normal 4 7" xfId="107" xr:uid="{00000000-0005-0000-0000-00006B000000}"/>
-    <cellStyle name="Normal 5" xfId="108" xr:uid="{00000000-0005-0000-0000-00006C000000}"/>
-    <cellStyle name="Normal 5 2" xfId="109" xr:uid="{00000000-0005-0000-0000-00006D000000}"/>
-    <cellStyle name="Normal 5 3" xfId="110" xr:uid="{00000000-0005-0000-0000-00006E000000}"/>
-    <cellStyle name="Normal 6" xfId="111" xr:uid="{00000000-0005-0000-0000-00006F000000}"/>
-    <cellStyle name="Normal 6 2" xfId="112" xr:uid="{00000000-0005-0000-0000-000070000000}"/>
-    <cellStyle name="Normal 7" xfId="113" xr:uid="{00000000-0005-0000-0000-000071000000}"/>
-    <cellStyle name="Normal 7 2" xfId="114" xr:uid="{00000000-0005-0000-0000-000072000000}"/>
-    <cellStyle name="Normal 8" xfId="115" xr:uid="{00000000-0005-0000-0000-000073000000}"/>
-    <cellStyle name="Normal 9" xfId="116" xr:uid="{00000000-0005-0000-0000-000074000000}"/>
-    <cellStyle name="Note 2" xfId="117" xr:uid="{00000000-0005-0000-0000-000075000000}"/>
-    <cellStyle name="Note 2 2" xfId="118" xr:uid="{00000000-0005-0000-0000-000076000000}"/>
-    <cellStyle name="Output 2" xfId="119" xr:uid="{00000000-0005-0000-0000-000077000000}"/>
-    <cellStyle name="Parent row" xfId="3" xr:uid="{00000000-0005-0000-0000-000078000000}"/>
-    <cellStyle name="Parent row 2" xfId="120" xr:uid="{00000000-0005-0000-0000-000079000000}"/>
+    <cellStyle name="Normal 10" xfId="76"/>
+    <cellStyle name="Normal 11" xfId="77"/>
+    <cellStyle name="Normal 12" xfId="155"/>
+    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2 2" xfId="78"/>
+    <cellStyle name="Normal 2 3" xfId="79"/>
+    <cellStyle name="Normal 3" xfId="80"/>
+    <cellStyle name="Normal 3 2" xfId="81"/>
+    <cellStyle name="Normal 3 2 2" xfId="82"/>
+    <cellStyle name="Normal 3 2 2 2" xfId="83"/>
+    <cellStyle name="Normal 3 2 3" xfId="84"/>
+    <cellStyle name="Normal 3 3" xfId="85"/>
+    <cellStyle name="Normal 3 3 2" xfId="86"/>
+    <cellStyle name="Normal 3 3 2 2" xfId="87"/>
+    <cellStyle name="Normal 3 3 3" xfId="88"/>
+    <cellStyle name="Normal 3 4" xfId="89"/>
+    <cellStyle name="Normal 3 4 2" xfId="90"/>
+    <cellStyle name="Normal 3 5" xfId="91"/>
+    <cellStyle name="Normal 3 6" xfId="92"/>
+    <cellStyle name="Normal 3 7" xfId="93"/>
+    <cellStyle name="Normal 4" xfId="94"/>
+    <cellStyle name="Normal 4 2" xfId="95"/>
+    <cellStyle name="Normal 4 2 2" xfId="96"/>
+    <cellStyle name="Normal 4 2 2 2" xfId="97"/>
+    <cellStyle name="Normal 4 2 3" xfId="98"/>
+    <cellStyle name="Normal 4 3" xfId="99"/>
+    <cellStyle name="Normal 4 3 2" xfId="100"/>
+    <cellStyle name="Normal 4 3 2 2" xfId="101"/>
+    <cellStyle name="Normal 4 3 3" xfId="102"/>
+    <cellStyle name="Normal 4 4" xfId="103"/>
+    <cellStyle name="Normal 4 4 2" xfId="104"/>
+    <cellStyle name="Normal 4 5" xfId="105"/>
+    <cellStyle name="Normal 4 6" xfId="106"/>
+    <cellStyle name="Normal 4 7" xfId="107"/>
+    <cellStyle name="Normal 5" xfId="108"/>
+    <cellStyle name="Normal 5 2" xfId="109"/>
+    <cellStyle name="Normal 5 3" xfId="110"/>
+    <cellStyle name="Normal 6" xfId="111"/>
+    <cellStyle name="Normal 6 2" xfId="112"/>
+    <cellStyle name="Normal 7" xfId="113"/>
+    <cellStyle name="Normal 7 2" xfId="114"/>
+    <cellStyle name="Normal 8" xfId="115"/>
+    <cellStyle name="Normal 9" xfId="116"/>
+    <cellStyle name="Note 2" xfId="117"/>
+    <cellStyle name="Note 2 2" xfId="118"/>
+    <cellStyle name="Output 2" xfId="119"/>
+    <cellStyle name="Parent row" xfId="3"/>
+    <cellStyle name="Parent row 2" xfId="120"/>
     <cellStyle name="Percent" xfId="153" builtinId="5"/>
-    <cellStyle name="Percent 2" xfId="121" xr:uid="{00000000-0005-0000-0000-00007B000000}"/>
-    <cellStyle name="Percent 2 2" xfId="122" xr:uid="{00000000-0005-0000-0000-00007C000000}"/>
-    <cellStyle name="Percent 3" xfId="123" xr:uid="{00000000-0005-0000-0000-00007D000000}"/>
-    <cellStyle name="Percent 3 2" xfId="124" xr:uid="{00000000-0005-0000-0000-00007E000000}"/>
-    <cellStyle name="Percent 4" xfId="125" xr:uid="{00000000-0005-0000-0000-00007F000000}"/>
-    <cellStyle name="Reference" xfId="126" xr:uid="{00000000-0005-0000-0000-000080000000}"/>
-    <cellStyle name="Row heading" xfId="127" xr:uid="{00000000-0005-0000-0000-000081000000}"/>
-    <cellStyle name="Source Hed" xfId="128" xr:uid="{00000000-0005-0000-0000-000082000000}"/>
-    <cellStyle name="Source Letter" xfId="129" xr:uid="{00000000-0005-0000-0000-000083000000}"/>
-    <cellStyle name="Source Superscript" xfId="130" xr:uid="{00000000-0005-0000-0000-000084000000}"/>
-    <cellStyle name="Source Superscript 2" xfId="131" xr:uid="{00000000-0005-0000-0000-000085000000}"/>
-    <cellStyle name="Source Text" xfId="132" xr:uid="{00000000-0005-0000-0000-000086000000}"/>
-    <cellStyle name="Source Text 2" xfId="133" xr:uid="{00000000-0005-0000-0000-000087000000}"/>
-    <cellStyle name="State" xfId="134" xr:uid="{00000000-0005-0000-0000-000088000000}"/>
-    <cellStyle name="Superscript" xfId="135" xr:uid="{00000000-0005-0000-0000-000089000000}"/>
-    <cellStyle name="Table Data" xfId="136" xr:uid="{00000000-0005-0000-0000-00008A000000}"/>
-    <cellStyle name="Table Head Top" xfId="137" xr:uid="{00000000-0005-0000-0000-00008B000000}"/>
-    <cellStyle name="Table Hed Side" xfId="138" xr:uid="{00000000-0005-0000-0000-00008C000000}"/>
-    <cellStyle name="Table title" xfId="7" xr:uid="{00000000-0005-0000-0000-00008D000000}"/>
-    <cellStyle name="Table title 2" xfId="139" xr:uid="{00000000-0005-0000-0000-00008E000000}"/>
-    <cellStyle name="Title 2" xfId="140" xr:uid="{00000000-0005-0000-0000-00008F000000}"/>
-    <cellStyle name="Title Text" xfId="141" xr:uid="{00000000-0005-0000-0000-000090000000}"/>
-    <cellStyle name="Title Text 1" xfId="142" xr:uid="{00000000-0005-0000-0000-000091000000}"/>
-    <cellStyle name="Title Text 2" xfId="143" xr:uid="{00000000-0005-0000-0000-000092000000}"/>
-    <cellStyle name="Title-1" xfId="144" xr:uid="{00000000-0005-0000-0000-000093000000}"/>
-    <cellStyle name="Title-2" xfId="145" xr:uid="{00000000-0005-0000-0000-000094000000}"/>
-    <cellStyle name="Title-3" xfId="146" xr:uid="{00000000-0005-0000-0000-000095000000}"/>
-    <cellStyle name="Total 2" xfId="147" xr:uid="{00000000-0005-0000-0000-000096000000}"/>
-    <cellStyle name="Warning Text 2" xfId="148" xr:uid="{00000000-0005-0000-0000-000097000000}"/>
-    <cellStyle name="Wrap" xfId="149" xr:uid="{00000000-0005-0000-0000-000098000000}"/>
-    <cellStyle name="Wrap Bold" xfId="150" xr:uid="{00000000-0005-0000-0000-000099000000}"/>
-    <cellStyle name="Wrap Title" xfId="151" xr:uid="{00000000-0005-0000-0000-00009A000000}"/>
-    <cellStyle name="Wrap_NTS99-~11" xfId="152" xr:uid="{00000000-0005-0000-0000-00009B000000}"/>
+    <cellStyle name="Percent 2" xfId="121"/>
+    <cellStyle name="Percent 2 2" xfId="122"/>
+    <cellStyle name="Percent 3" xfId="123"/>
+    <cellStyle name="Percent 3 2" xfId="124"/>
+    <cellStyle name="Percent 4" xfId="125"/>
+    <cellStyle name="Reference" xfId="126"/>
+    <cellStyle name="Row heading" xfId="127"/>
+    <cellStyle name="Source Hed" xfId="128"/>
+    <cellStyle name="Source Letter" xfId="129"/>
+    <cellStyle name="Source Superscript" xfId="130"/>
+    <cellStyle name="Source Superscript 2" xfId="131"/>
+    <cellStyle name="Source Text" xfId="132"/>
+    <cellStyle name="Source Text 2" xfId="133"/>
+    <cellStyle name="State" xfId="134"/>
+    <cellStyle name="Superscript" xfId="135"/>
+    <cellStyle name="Table Data" xfId="136"/>
+    <cellStyle name="Table Head Top" xfId="137"/>
+    <cellStyle name="Table Hed Side" xfId="138"/>
+    <cellStyle name="Table title" xfId="7"/>
+    <cellStyle name="Table title 2" xfId="139"/>
+    <cellStyle name="Title 2" xfId="140"/>
+    <cellStyle name="Title Text" xfId="141"/>
+    <cellStyle name="Title Text 1" xfId="142"/>
+    <cellStyle name="Title Text 2" xfId="143"/>
+    <cellStyle name="Title-1" xfId="144"/>
+    <cellStyle name="Title-2" xfId="145"/>
+    <cellStyle name="Title-3" xfId="146"/>
+    <cellStyle name="Total 2" xfId="147"/>
+    <cellStyle name="Warning Text 2" xfId="148"/>
+    <cellStyle name="Wrap" xfId="149"/>
+    <cellStyle name="Wrap Bold" xfId="150"/>
+    <cellStyle name="Wrap Title" xfId="151"/>
+    <cellStyle name="Wrap_NTS99-~11" xfId="152"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1687,23 +1686,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1739,23 +1721,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1931,19 +1896,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" style="4" customWidth="1"/>
+    <col min="1" max="1" width="13.3984375" style="4" customWidth="1"/>
     <col min="2" max="2" width="63" customWidth="1"/>
-    <col min="3" max="3" width="8.7109375" customWidth="1"/>
-    <col min="4" max="4" width="73.140625" customWidth="1"/>
+    <col min="3" max="3" width="8.73046875" customWidth="1"/>
+    <col min="4" max="4" width="73.1328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -2086,7 +2051,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D6" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="D6" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -2094,7 +2059,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
   <dimension ref="A1:M1893"/>
   <sheetViews>
@@ -2103,19 +2068,19 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="15.85546875" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.85546875" style="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.85546875" style="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.85546875" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.85546875" style="9" customWidth="1"/>
+    <col min="1" max="1" width="15.86328125" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.86328125" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.86328125" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.86328125" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.86328125" style="9" customWidth="1"/>
     <col min="6" max="9" width="17" style="9" customWidth="1"/>
-    <col min="10" max="10" width="15.5703125" style="9" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="9" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.28515625" style="9" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.42578125" style="9" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="12.5703125" style="9"/>
+    <col min="10" max="10" width="15.59765625" style="9" customWidth="1"/>
+    <col min="11" max="11" width="14.3984375" style="9" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.265625" style="9" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.3984375" style="9" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="12.59765625" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="8" customFormat="1">
@@ -79732,7 +79697,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:M1893" xr:uid="{00000000-0009-0000-0000-000001000000}">
+  <autoFilter ref="A1:M1893">
     <filterColumn colId="2">
       <filters>
         <filter val="India"/>
@@ -79756,20 +79721,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="24.5703125" style="9" customWidth="1"/>
-    <col min="2" max="2" width="26.85546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.59765625" style="9" customWidth="1"/>
+    <col min="2" max="2" width="26.86328125" style="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="25" style="9" customWidth="1"/>
-    <col min="4" max="4" width="30.42578125" style="9" customWidth="1"/>
-    <col min="5" max="5" width="25.28515625" style="9" customWidth="1"/>
-    <col min="6" max="6" width="25.140625" style="9" customWidth="1"/>
-    <col min="7" max="16384" width="12.5703125" style="9"/>
+    <col min="4" max="4" width="30.3984375" style="9" customWidth="1"/>
+    <col min="5" max="5" width="25.265625" style="9" customWidth="1"/>
+    <col min="6" max="6" width="25.1328125" style="9" customWidth="1"/>
+    <col min="7" max="16384" width="12.59765625" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="13" customFormat="1" ht="63">
@@ -79898,19 +79863,19 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL31"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="22.28515625" customWidth="1"/>
+    <col min="1" max="1" width="22.265625" customWidth="1"/>
     <col min="2" max="2" width="43" customWidth="1"/>
-    <col min="3" max="27" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="28" max="38" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="27" width="9.265625" bestFit="1" customWidth="1"/>
+    <col min="28" max="38" width="9.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -82396,975 +82361,949 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:AI9"/>
+  <dimension ref="A1:AH9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="Y11" sqref="Y11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="16.5703125" customWidth="1"/>
+    <col min="1" max="1" width="16.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="75">
+    <row r="1" spans="1:34" ht="71.25">
       <c r="A1" s="20" t="s">
         <v>112</v>
       </c>
       <c r="B1">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="C1">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D1">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="E1">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F1">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="G1">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="H1">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="I1">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="J1">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="K1">
-        <v>2026</v>
+        <v>2027</v>
       </c>
       <c r="L1">
-        <v>2027</v>
+        <v>2028</v>
       </c>
       <c r="M1">
-        <v>2028</v>
+        <v>2029</v>
       </c>
       <c r="N1">
-        <v>2029</v>
+        <v>2030</v>
       </c>
       <c r="O1">
-        <v>2030</v>
+        <v>2031</v>
       </c>
       <c r="P1">
-        <v>2031</v>
+        <v>2032</v>
       </c>
       <c r="Q1">
-        <v>2032</v>
+        <v>2033</v>
       </c>
       <c r="R1">
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="S1">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="T1">
-        <v>2035</v>
+        <v>2036</v>
       </c>
       <c r="U1">
-        <v>2036</v>
+        <v>2037</v>
       </c>
       <c r="V1">
-        <v>2037</v>
+        <v>2038</v>
       </c>
       <c r="W1">
-        <v>2038</v>
+        <v>2039</v>
       </c>
       <c r="X1">
-        <v>2039</v>
+        <v>2040</v>
       </c>
       <c r="Y1">
-        <v>2040</v>
+        <v>2041</v>
       </c>
       <c r="Z1">
-        <v>2041</v>
+        <v>2042</v>
       </c>
       <c r="AA1">
-        <v>2042</v>
+        <v>2043</v>
       </c>
       <c r="AB1">
-        <v>2043</v>
+        <v>2044</v>
       </c>
       <c r="AC1">
-        <v>2044</v>
+        <v>2045</v>
       </c>
       <c r="AD1">
-        <v>2045</v>
+        <v>2046</v>
       </c>
       <c r="AE1">
-        <v>2046</v>
+        <v>2047</v>
       </c>
       <c r="AF1">
-        <v>2047</v>
+        <v>2048</v>
       </c>
       <c r="AG1">
-        <v>2048</v>
+        <v>2049</v>
       </c>
       <c r="AH1">
-        <v>2049</v>
-      </c>
-      <c r="AI1">
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35">
+    <row r="2" spans="1:34">
       <c r="A2" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="3">
-        <f>'Projections by Veh Type'!C20/'Projections by Veh Type'!$C20</f>
+        <f>'Projections by Veh Type'!F20/'Projections by Veh Type'!$F20</f>
         <v>1</v>
       </c>
       <c r="C2" s="3">
-        <f>'Projections by Veh Type'!E20/'Projections by Veh Type'!$D20</f>
-        <v>1.0698244816124907</v>
+        <f>'Projections by Veh Type'!G20/'Projections by Veh Type'!$F20</f>
+        <v>1.061268411472005</v>
       </c>
       <c r="D2" s="3">
-        <f>'Projections by Veh Type'!F20/'Projections by Veh Type'!$D20</f>
-        <v>1.1396489632249813</v>
+        <f>'Projections by Veh Type'!H20/'Projections by Veh Type'!$F20</f>
+        <v>1.1225368229439914</v>
       </c>
       <c r="E2" s="3">
-        <f>'Projections by Veh Type'!G20/'Projections by Veh Type'!$D20</f>
-        <v>1.2094734448374935</v>
+        <f>'Projections by Veh Type'!I20/'Projections by Veh Type'!$F20</f>
+        <v>1.1795678008830004</v>
       </c>
       <c r="F2" s="3">
-        <f>'Projections by Veh Type'!H20/'Projections by Veh Type'!$D20</f>
-        <v>1.2792979264499842</v>
+        <f>'Projections by Veh Type'!J20/'Projections by Veh Type'!$F20</f>
+        <v>1.2365987788220094</v>
       </c>
       <c r="G2" s="3">
-        <f>'Projections by Veh Type'!I20/'Projections by Veh Type'!$D20</f>
-        <v>1.3442932213298826</v>
+        <f>'Projections by Veh Type'!K20/'Projections by Veh Type'!$F20</f>
+        <v>1.2936297567610373</v>
       </c>
       <c r="H2" s="3">
-        <f>'Projections by Veh Type'!J20/'Projections by Veh Type'!$D20</f>
-        <v>1.409288516209781</v>
+        <f>'Projections by Veh Type'!L20/'Projections by Veh Type'!$F20</f>
+        <v>1.3506607347000463</v>
       </c>
       <c r="I2" s="3">
-        <f>'Projections by Veh Type'!K20/'Projections by Veh Type'!$D20</f>
-        <v>1.474283811089701</v>
+        <f>'Projections by Veh Type'!M20/'Projections by Veh Type'!$F20</f>
+        <v>1.4076917126390553</v>
       </c>
       <c r="J2" s="3">
-        <f>'Projections by Veh Type'!L20/'Projections by Veh Type'!$D20</f>
-        <v>1.5392791059695994</v>
+        <f>'Projections by Veh Type'!N20/'Projections by Veh Type'!$F20</f>
+        <v>1.4634759383029023</v>
       </c>
       <c r="K2" s="3">
-        <f>'Projections by Veh Type'!M20/'Projections by Veh Type'!$D20</f>
-        <v>1.6042744008494978</v>
+        <f>'Projections by Veh Type'!O20/'Projections by Veh Type'!$F20</f>
+        <v>1.5192601639667496</v>
       </c>
       <c r="L2" s="3">
-        <f>'Projections by Veh Type'!N20/'Projections by Veh Type'!$D20</f>
-        <v>1.6678488357916095</v>
+        <f>'Projections by Veh Type'!P20/'Projections by Veh Type'!$F20</f>
+        <v>1.5750443896305966</v>
       </c>
       <c r="M2" s="3">
-        <f>'Projections by Veh Type'!O20/'Projections by Veh Type'!$D20</f>
-        <v>1.7314232707337214</v>
+        <f>'Projections by Veh Type'!Q20/'Projections by Veh Type'!$F20</f>
+        <v>1.6308286152944627</v>
       </c>
       <c r="N2" s="3">
-        <f>'Projections by Veh Type'!P20/'Projections by Veh Type'!$D20</f>
-        <v>1.7949977056758331</v>
+        <f>'Projections by Veh Type'!R20/'Projections by Veh Type'!$F20</f>
+        <v>1.6866128409583097</v>
       </c>
       <c r="O2" s="3">
-        <f>'Projections by Veh Type'!Q20/'Projections by Veh Type'!$D20</f>
-        <v>1.8585721406179663</v>
+        <f>'Projections by Veh Type'!S20/'Projections by Veh Type'!$F20</f>
+        <v>1.7459659897567248</v>
       </c>
       <c r="P2" s="3">
-        <f>'Projections by Veh Type'!R20/'Projections by Veh Type'!$D20</f>
-        <v>1.9221465755600782</v>
+        <f>'Projections by Veh Type'!T20/'Projections by Veh Type'!$F20</f>
+        <v>1.8053191385551588</v>
       </c>
       <c r="Q2" s="3">
-        <f>'Projections by Veh Type'!S20/'Projections by Veh Type'!$D20</f>
-        <v>1.98978833005233</v>
+        <f>'Projections by Veh Type'!U20/'Projections by Veh Type'!$F20</f>
+        <v>1.8646722873535928</v>
       </c>
       <c r="R2" s="3">
-        <f>'Projections by Veh Type'!T20/'Projections by Veh Type'!$D20</f>
-        <v>2.0574300845446034</v>
+        <f>'Projections by Veh Type'!V20/'Projections by Veh Type'!$F20</f>
+        <v>1.9240254361520079</v>
       </c>
       <c r="S2" s="3">
-        <f>'Projections by Veh Type'!U20/'Projections by Veh Type'!$D20</f>
-        <v>2.1250718390368766</v>
+        <f>'Projections by Veh Type'!W20/'Projections by Veh Type'!$F20</f>
+        <v>1.9833785849504417</v>
       </c>
       <c r="T2" s="3">
-        <f>'Projections by Veh Type'!V20/'Projections by Veh Type'!$D20</f>
-        <v>2.1927135935291284</v>
+        <f>'Projections by Veh Type'!X20/'Projections by Veh Type'!$F20</f>
+        <v>2.0671612062901779</v>
       </c>
       <c r="U2" s="3">
-        <f>'Projections by Veh Type'!W20/'Projections by Veh Type'!$D20</f>
-        <v>2.2603553480214016</v>
+        <f>'Projections by Veh Type'!Y20/'Projections by Veh Type'!$F20</f>
+        <v>2.1509438276298951</v>
       </c>
       <c r="V2" s="3">
-        <f>'Projections by Veh Type'!X20/'Projections by Veh Type'!$D20</f>
-        <v>2.3558381255675029</v>
+        <f>'Projections by Veh Type'!Z20/'Projections by Veh Type'!$F20</f>
+        <v>2.2347264489696124</v>
       </c>
       <c r="W2" s="3">
-        <f>'Projections by Veh Type'!Y20/'Projections by Veh Type'!$D20</f>
-        <v>2.451320903113583</v>
+        <f>'Projections by Veh Type'!AA20/'Projections by Veh Type'!$F20</f>
+        <v>2.3185090703092923</v>
       </c>
       <c r="X2" s="3">
-        <f>'Projections by Veh Type'!Z20/'Projections by Veh Type'!$D20</f>
-        <v>2.546803680659663</v>
+        <f>'Projections by Veh Type'!AB20/'Projections by Veh Type'!$F20</f>
+        <v>2.4022916916490096</v>
       </c>
       <c r="Y2" s="3">
-        <f>'Projections by Veh Type'!AA20/'Projections by Veh Type'!$D20</f>
-        <v>2.6422864582057004</v>
+        <f>'Projections by Veh Type'!AC20/'Projections by Veh Type'!$F20</f>
+        <v>2.5160940153779086</v>
       </c>
       <c r="Z2" s="3">
-        <f>'Projections by Veh Type'!AB20/'Projections by Veh Type'!$D20</f>
-        <v>2.7377692357517804</v>
+        <f>'Projections by Veh Type'!AD20/'Projections by Veh Type'!$F20</f>
+        <v>2.6298963391068453</v>
       </c>
       <c r="AA2" s="3">
-        <f>'Projections by Veh Type'!AC20/'Projections by Veh Type'!$D20</f>
-        <v>2.8674639360020135</v>
+        <f>'Projections by Veh Type'!AE20/'Projections by Veh Type'!$F20</f>
+        <v>2.7436986628357443</v>
       </c>
       <c r="AB2" s="3">
-        <f>'Projections by Veh Type'!AD20/'Projections by Veh Type'!$D20</f>
-        <v>2.9971586362522902</v>
+        <f>'Projections by Veh Type'!AF20/'Projections by Veh Type'!$F20</f>
+        <v>2.8575009865646432</v>
       </c>
       <c r="AC2" s="3">
-        <f>'Projections by Veh Type'!AE20/'Projections by Veh Type'!$D20</f>
-        <v>3.1268533365025237</v>
+        <f>'Projections by Veh Type'!AG20/'Projections by Veh Type'!$F20</f>
+        <v>2.9713033102935422</v>
       </c>
       <c r="AD2" s="3">
-        <f>'Projections by Veh Type'!AF20/'Projections by Veh Type'!$D20</f>
-        <v>3.2565480367527568</v>
+        <f>'Projections by Veh Type'!AH20/'Projections by Veh Type'!$F20</f>
+        <v>3.1348200186598736</v>
       </c>
       <c r="AE2" s="3">
-        <f>'Projections by Veh Type'!AG20/'Projections by Veh Type'!$D20</f>
-        <v>3.3862427370029904</v>
+        <f>'Projections by Veh Type'!AI20/'Projections by Veh Type'!$F20</f>
+        <v>3.2983367270262423</v>
       </c>
       <c r="AF2" s="3">
-        <f>'Projections by Veh Type'!AH20/'Projections by Veh Type'!$D20</f>
-        <v>3.5725943841626417</v>
+        <f>'Projections by Veh Type'!AJ20/'Projections by Veh Type'!$F20</f>
+        <v>3.4618534353925736</v>
       </c>
       <c r="AG2" s="3">
-        <f>'Projections by Veh Type'!AI20/'Projections by Veh Type'!$D20</f>
-        <v>3.7589460313223357</v>
+        <f>'Projections by Veh Type'!AK20/'Projections by Veh Type'!$F20</f>
+        <v>3.625370143758905</v>
       </c>
       <c r="AH2" s="3">
-        <f>'Projections by Veh Type'!AJ20/'Projections by Veh Type'!$D20</f>
-        <v>3.9452976784819866</v>
-      </c>
-      <c r="AI2" s="3">
-        <f>'Projections by Veh Type'!AK20/'Projections by Veh Type'!$D20</f>
-        <v>4.1316493256416376</v>
-      </c>
-    </row>
-    <row r="3" spans="1:35">
+        <f>'Projections by Veh Type'!AL20/'Projections by Veh Type'!$F20</f>
+        <v>3.7888868521252741</v>
+      </c>
+    </row>
+    <row r="3" spans="1:34">
       <c r="A3" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="3">
-        <f>'Projections by Veh Type'!C21/'Projections by Veh Type'!$C21</f>
+        <f>'Projections by Veh Type'!F21/'Projections by Veh Type'!$F21</f>
         <v>1</v>
       </c>
       <c r="C3" s="3">
-        <f>'Projections by Veh Type'!E21/'Projections by Veh Type'!$D21</f>
-        <v>1.0589704128575244</v>
+        <f>'Projections by Veh Type'!G21/'Projections by Veh Type'!$F21</f>
+        <v>1.0527491361806249</v>
       </c>
       <c r="D3" s="3">
-        <f>'Projections by Veh Type'!F21/'Projections by Veh Type'!$D21</f>
-        <v>1.1179408257150665</v>
+        <f>'Projections by Veh Type'!H21/'Projections by Veh Type'!$F21</f>
+        <v>1.1054982723612659</v>
       </c>
       <c r="E3" s="3">
-        <f>'Projections by Veh Type'!G21/'Projections by Veh Type'!$D21</f>
-        <v>1.1769112385725908</v>
+        <f>'Projections by Veh Type'!I21/'Projections by Veh Type'!$F21</f>
+        <v>1.1739943856726858</v>
       </c>
       <c r="F3" s="3">
-        <f>'Projections by Veh Type'!H21/'Projections by Veh Type'!$D21</f>
-        <v>1.235881651430133</v>
+        <f>'Projections by Veh Type'!J21/'Projections by Veh Type'!$F21</f>
+        <v>1.2424904989841057</v>
       </c>
       <c r="G3" s="3">
-        <f>'Projections by Veh Type'!I21/'Projections by Veh Type'!$D21</f>
-        <v>1.3124562529037744</v>
+        <f>'Projections by Veh Type'!K21/'Projections by Veh Type'!$F21</f>
+        <v>1.3109866122955258</v>
       </c>
       <c r="H3" s="3">
-        <f>'Projections by Veh Type'!J21/'Projections by Veh Type'!$D21</f>
-        <v>1.3890308543774161</v>
+        <f>'Projections by Veh Type'!L21/'Projections by Veh Type'!$F21</f>
+        <v>1.3794827256069457</v>
       </c>
       <c r="I3" s="3">
-        <f>'Projections by Veh Type'!K21/'Projections by Veh Type'!$D21</f>
-        <v>1.4656054558510578</v>
+        <f>'Projections by Veh Type'!M21/'Projections by Veh Type'!$F21</f>
+        <v>1.4479788389183816</v>
       </c>
       <c r="J3" s="3">
-        <f>'Projections by Veh Type'!L21/'Projections by Veh Type'!$D21</f>
-        <v>1.5421800573246993</v>
+        <f>'Projections by Veh Type'!N21/'Projections by Veh Type'!$F21</f>
+        <v>1.5277852674781849</v>
       </c>
       <c r="K3" s="3">
-        <f>'Projections by Veh Type'!M21/'Projections by Veh Type'!$D21</f>
-        <v>1.6187546587983588</v>
+        <f>'Projections by Veh Type'!O21/'Projections by Veh Type'!$F21</f>
+        <v>1.6075916960380199</v>
       </c>
       <c r="L3" s="3">
-        <f>'Projections by Veh Type'!N21/'Projections by Veh Type'!$D21</f>
-        <v>1.7079735234398756</v>
+        <f>'Projections by Veh Type'!P21/'Projections by Veh Type'!$F21</f>
+        <v>1.6873981245978549</v>
       </c>
       <c r="M3" s="3">
-        <f>'Projections by Veh Type'!O21/'Projections by Veh Type'!$D21</f>
-        <v>1.797192388081428</v>
+        <f>'Projections by Veh Type'!Q21/'Projections by Veh Type'!$F21</f>
+        <v>1.7672045531576899</v>
       </c>
       <c r="N3" s="3">
-        <f>'Projections by Veh Type'!P21/'Projections by Veh Type'!$D21</f>
-        <v>1.8864112527229806</v>
+        <f>'Projections by Veh Type'!R21/'Projections by Veh Type'!$F21</f>
+        <v>1.8470109817174933</v>
       </c>
       <c r="O3" s="3">
-        <f>'Projections by Veh Type'!Q21/'Projections by Veh Type'!$D21</f>
-        <v>1.975630117364533</v>
+        <f>'Projections by Veh Type'!S21/'Projections by Veh Type'!$F21</f>
+        <v>1.9331531813610769</v>
       </c>
       <c r="P3" s="3">
-        <f>'Projections by Veh Type'!R21/'Projections by Veh Type'!$D21</f>
-        <v>2.0648489820060498</v>
+        <f>'Projections by Veh Type'!T21/'Projections by Veh Type'!$F21</f>
+        <v>2.0192953810046608</v>
       </c>
       <c r="Q3" s="3">
-        <f>'Projections by Veh Type'!S21/'Projections by Veh Type'!$D21</f>
-        <v>2.1611508638045098</v>
+        <f>'Projections by Veh Type'!U21/'Projections by Veh Type'!$F21</f>
+        <v>2.1054375806482444</v>
       </c>
       <c r="R3" s="3">
-        <f>'Projections by Veh Type'!T21/'Projections by Veh Type'!$D21</f>
-        <v>2.2574527456029703</v>
+        <f>'Projections by Veh Type'!V21/'Projections by Veh Type'!$F21</f>
+        <v>2.1915797802918284</v>
       </c>
       <c r="S3" s="3">
-        <f>'Projections by Veh Type'!U21/'Projections by Veh Type'!$D21</f>
-        <v>2.3537546274014303</v>
+        <f>'Projections by Veh Type'!W21/'Projections by Veh Type'!$F21</f>
+        <v>2.277721979935412</v>
       </c>
       <c r="T3" s="3">
-        <f>'Projections by Veh Type'!V21/'Projections by Veh Type'!$D21</f>
-        <v>2.4500565091998907</v>
+        <f>'Projections by Veh Type'!X21/'Projections by Veh Type'!$F21</f>
+        <v>2.3716416573567582</v>
       </c>
       <c r="U3" s="3">
-        <f>'Projections by Veh Type'!W21/'Projections by Veh Type'!$D21</f>
-        <v>2.5463583909983507</v>
+        <f>'Projections by Veh Type'!Y21/'Projections by Veh Type'!$F21</f>
+        <v>2.465561334778104</v>
       </c>
       <c r="V3" s="3">
-        <f>'Projections by Veh Type'!X21/'Projections by Veh Type'!$D21</f>
-        <v>2.6513550327256628</v>
+        <f>'Projections by Veh Type'!Z21/'Projections by Veh Type'!$F21</f>
+        <v>2.5594810121994813</v>
       </c>
       <c r="W3" s="3">
-        <f>'Projections by Veh Type'!Y21/'Projections by Veh Type'!$D21</f>
-        <v>2.7563516744529748</v>
+        <f>'Projections by Veh Type'!AA21/'Projections by Veh Type'!$F21</f>
+        <v>2.6534006896208275</v>
       </c>
       <c r="X3" s="3">
-        <f>'Projections by Veh Type'!Z21/'Projections by Veh Type'!$D21</f>
-        <v>2.8613483161803224</v>
+        <f>'Projections by Veh Type'!AB21/'Projections by Veh Type'!$F21</f>
+        <v>2.7473203670422048</v>
       </c>
       <c r="Y3" s="3">
-        <f>'Projections by Veh Type'!AA21/'Projections by Veh Type'!$D21</f>
-        <v>2.9663449579076344</v>
+        <f>'Projections by Veh Type'!AC21/'Projections by Veh Type'!$F21</f>
+        <v>2.8532806273844655</v>
       </c>
       <c r="Z3" s="3">
-        <f>'Projections by Veh Type'!AB21/'Projections by Veh Type'!$D21</f>
-        <v>3.071341599634982</v>
+        <f>'Projections by Veh Type'!AD21/'Projections by Veh Type'!$F21</f>
+        <v>2.9592408877267267</v>
       </c>
       <c r="AA3" s="3">
-        <f>'Projections by Veh Type'!AC21/'Projections by Veh Type'!$D21</f>
-        <v>3.1897989005749925</v>
+        <f>'Projections by Veh Type'!AE21/'Projections by Veh Type'!$F21</f>
+        <v>3.0652011480689874</v>
       </c>
       <c r="AB3" s="3">
-        <f>'Projections by Veh Type'!AD21/'Projections by Veh Type'!$D21</f>
-        <v>3.308256201515003</v>
+        <f>'Projections by Veh Type'!AF21/'Projections by Veh Type'!$F21</f>
+        <v>3.1711614084112481</v>
       </c>
       <c r="AC3" s="3">
-        <f>'Projections by Veh Type'!AE21/'Projections by Veh Type'!$D21</f>
-        <v>3.4267135024550135</v>
+        <f>'Projections by Veh Type'!AG21/'Projections by Veh Type'!$F21</f>
+        <v>3.2771216687534772</v>
       </c>
       <c r="AD3" s="3">
-        <f>'Projections by Veh Type'!AF21/'Projections by Veh Type'!$D21</f>
-        <v>3.545170803395024</v>
+        <f>'Projections by Veh Type'!AH21/'Projections by Veh Type'!$F21</f>
+        <v>3.3976526395396442</v>
       </c>
       <c r="AE3" s="3">
-        <f>'Projections by Veh Type'!AG21/'Projections by Veh Type'!$D21</f>
-        <v>3.663628104334999</v>
+        <f>'Projections by Veh Type'!AI21/'Projections by Veh Type'!$F21</f>
+        <v>3.5181836103258108</v>
       </c>
       <c r="AF3" s="3">
-        <f>'Projections by Veh Type'!AH21/'Projections by Veh Type'!$D21</f>
-        <v>3.7983745973399246</v>
+        <f>'Projections by Veh Type'!AJ21/'Projections by Veh Type'!$F21</f>
+        <v>3.6387145811119459</v>
       </c>
       <c r="AG3" s="3">
-        <f>'Projections by Veh Type'!AI21/'Projections by Veh Type'!$D21</f>
-        <v>3.9331210903448506</v>
+        <f>'Projections by Veh Type'!AK21/'Projections by Veh Type'!$F21</f>
+        <v>3.759245551898081</v>
       </c>
       <c r="AH3" s="3">
-        <f>'Projections by Veh Type'!AJ21/'Projections by Veh Type'!$D21</f>
-        <v>4.0678675833497406</v>
-      </c>
-      <c r="AI3" s="3">
-        <f>'Projections by Veh Type'!AK21/'Projections by Veh Type'!$D21</f>
-        <v>4.2026140763546316</v>
-      </c>
-    </row>
-    <row r="4" spans="1:35">
+        <f>'Projections by Veh Type'!AL21/'Projections by Veh Type'!$F21</f>
+        <v>3.8797765226842476</v>
+      </c>
+    </row>
+    <row r="4" spans="1:34">
       <c r="A4" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="3">
-        <f>'Projections by Veh Type'!C22/'Projections by Veh Type'!$C22</f>
+        <f>'Projections by Veh Type'!F22/'Projections by Veh Type'!$F22</f>
         <v>1</v>
       </c>
       <c r="C4" s="3">
-        <f>'Projections by Veh Type'!E22/'Projections by Veh Type'!$D22</f>
-        <v>1.0603403272315612</v>
+        <f>'Projections by Veh Type'!G22/'Projections by Veh Type'!$F22</f>
+        <v>1.0538425705764098</v>
       </c>
       <c r="D4" s="3">
-        <f>'Projections by Veh Type'!F22/'Projections by Veh Type'!$D22</f>
-        <v>1.1206806544631227</v>
+        <f>'Projections by Veh Type'!H22/'Projections by Veh Type'!$F22</f>
+        <v>1.1076851411528317</v>
       </c>
       <c r="E4" s="3">
-        <f>'Projections by Veh Type'!G22/'Projections by Veh Type'!$D22</f>
-        <v>1.1810209816946704</v>
+        <f>'Projections by Veh Type'!I22/'Projections by Veh Type'!$F22</f>
+        <v>1.1858160443160553</v>
       </c>
       <c r="F4" s="3">
-        <f>'Projections by Veh Type'!H22/'Projections by Veh Type'!$D22</f>
-        <v>1.2413613089262316</v>
+        <f>'Projections by Veh Type'!J22/'Projections by Veh Type'!$F22</f>
+        <v>1.2639469474792548</v>
       </c>
       <c r="G4" s="3">
-        <f>'Projections by Veh Type'!I22/'Projections by Veh Type'!$D22</f>
-        <v>1.3289211006169881</v>
+        <f>'Projections by Veh Type'!K22/'Projections by Veh Type'!$F22</f>
+        <v>1.3420778506424544</v>
       </c>
       <c r="H4" s="3">
-        <f>'Projections by Veh Type'!J22/'Projections by Veh Type'!$D22</f>
-        <v>1.4164808923077172</v>
+        <f>'Projections by Veh Type'!L22/'Projections by Veh Type'!$F22</f>
+        <v>1.420208753805678</v>
       </c>
       <c r="I4" s="3">
-        <f>'Projections by Veh Type'!K22/'Projections by Veh Type'!$D22</f>
-        <v>1.5040406839984466</v>
+        <f>'Projections by Veh Type'!M22/'Projections by Veh Type'!$F22</f>
+        <v>1.4983396569688776</v>
       </c>
       <c r="J4" s="3">
-        <f>'Projections by Veh Type'!L22/'Projections by Veh Type'!$D22</f>
-        <v>1.591600475689203</v>
+        <f>'Projections by Veh Type'!N22/'Projections by Veh Type'!$F22</f>
+        <v>1.6246662307502711</v>
       </c>
       <c r="K4" s="3">
-        <f>'Projections by Veh Type'!M22/'Projections by Veh Type'!$D22</f>
-        <v>1.6791602673799322</v>
+        <f>'Projections by Veh Type'!O22/'Projections by Veh Type'!$F22</f>
+        <v>1.7509928045316887</v>
       </c>
       <c r="L4" s="3">
-        <f>'Projections by Veh Type'!N22/'Projections by Veh Type'!$D22</f>
-        <v>1.8207320147613484</v>
+        <f>'Projections by Veh Type'!P22/'Projections by Veh Type'!$F22</f>
+        <v>1.8773193783131064</v>
       </c>
       <c r="M4" s="3">
-        <f>'Projections by Veh Type'!O22/'Projections by Veh Type'!$D22</f>
-        <v>1.9623037621427912</v>
+        <f>'Projections by Veh Type'!Q22/'Projections by Veh Type'!$F22</f>
+        <v>2.0036459520945238</v>
       </c>
       <c r="N4" s="3">
-        <f>'Projections by Veh Type'!P22/'Projections by Veh Type'!$D22</f>
-        <v>2.1038755095242343</v>
+        <f>'Projections by Veh Type'!R22/'Projections by Veh Type'!$F22</f>
+        <v>2.1299725258759414</v>
       </c>
       <c r="O4" s="3">
-        <f>'Projections by Veh Type'!Q22/'Projections by Veh Type'!$D22</f>
-        <v>2.2454472569056776</v>
+        <f>'Projections by Veh Type'!S22/'Projections by Veh Type'!$F22</f>
+        <v>2.2902086858923871</v>
       </c>
       <c r="P4" s="3">
-        <f>'Projections by Veh Type'!R22/'Projections by Veh Type'!$D22</f>
-        <v>2.3870190042871204</v>
+        <f>'Projections by Veh Type'!T22/'Projections by Veh Type'!$F22</f>
+        <v>2.4504448459087844</v>
       </c>
       <c r="Q4" s="3">
-        <f>'Projections by Veh Type'!S22/'Projections by Veh Type'!$D22</f>
-        <v>2.5665925689630082</v>
+        <f>'Projections by Veh Type'!U22/'Projections by Veh Type'!$F22</f>
+        <v>2.6106810059251817</v>
       </c>
       <c r="R4" s="3">
-        <f>'Projections by Veh Type'!T22/'Projections by Veh Type'!$D22</f>
-        <v>2.7461661336388419</v>
+        <f>'Projections by Veh Type'!V22/'Projections by Veh Type'!$F22</f>
+        <v>2.770917165941627</v>
       </c>
       <c r="S4" s="3">
-        <f>'Projections by Veh Type'!U22/'Projections by Veh Type'!$D22</f>
-        <v>2.9257396983146755</v>
+        <f>'Projections by Veh Type'!W22/'Projections by Veh Type'!$F22</f>
+        <v>2.9311533259580242</v>
       </c>
       <c r="T4" s="3">
-        <f>'Projections by Veh Type'!V22/'Projections by Veh Type'!$D22</f>
-        <v>3.1053132629905633</v>
+        <f>'Projections by Veh Type'!X22/'Projections by Veh Type'!$F22</f>
+        <v>3.2125766664696775</v>
       </c>
       <c r="U4" s="3">
-        <f>'Projections by Veh Type'!W22/'Projections by Veh Type'!$D22</f>
-        <v>3.2848868276663969</v>
+        <f>'Projections by Veh Type'!Y22/'Projections by Veh Type'!$F22</f>
+        <v>3.4940000069813304</v>
       </c>
       <c r="V4" s="3">
-        <f>'Projections by Veh Type'!X22/'Projections by Veh Type'!$D22</f>
-        <v>3.6002725210921946</v>
+        <f>'Projections by Veh Type'!Z22/'Projections by Veh Type'!$F22</f>
+        <v>3.7754233474929837</v>
       </c>
       <c r="W4" s="3">
-        <f>'Projections by Veh Type'!Y22/'Projections by Veh Type'!$D22</f>
-        <v>3.9156582145179923</v>
+        <f>'Projections by Veh Type'!AA22/'Projections by Veh Type'!$F22</f>
+        <v>4.0568466880045397</v>
       </c>
       <c r="X4" s="3">
-        <f>'Projections by Veh Type'!Z22/'Projections by Veh Type'!$D22</f>
-        <v>4.23104390794379</v>
+        <f>'Projections by Veh Type'!AB22/'Projections by Veh Type'!$F22</f>
+        <v>4.3382700285161935</v>
       </c>
       <c r="Y4" s="3">
-        <f>'Projections by Veh Type'!AA22/'Projections by Veh Type'!$D22</f>
-        <v>4.5464296013694794</v>
+        <f>'Projections by Veh Type'!AC22/'Projections by Veh Type'!$F22</f>
+        <v>4.6977284123881304</v>
       </c>
       <c r="Z4" s="3">
-        <f>'Projections by Veh Type'!AB22/'Projections by Veh Type'!$D22</f>
-        <v>4.8618152947952771</v>
+        <f>'Projections by Veh Type'!AD22/'Projections by Veh Type'!$F22</f>
+        <v>5.0571867962600674</v>
       </c>
       <c r="AA4" s="3">
-        <f>'Projections by Veh Type'!AC22/'Projections by Veh Type'!$D22</f>
-        <v>5.2646533516851353</v>
+        <f>'Projections by Veh Type'!AE22/'Projections by Veh Type'!$F22</f>
+        <v>5.4166451801320035</v>
       </c>
       <c r="AB4" s="3">
-        <f>'Projections by Veh Type'!AD22/'Projections by Veh Type'!$D22</f>
-        <v>5.6674914085749943</v>
+        <f>'Projections by Veh Type'!AF22/'Projections by Veh Type'!$F22</f>
+        <v>5.7761035640040372</v>
       </c>
       <c r="AC4" s="3">
-        <f>'Projections by Veh Type'!AE22/'Projections by Veh Type'!$D22</f>
-        <v>6.0703294654648525</v>
+        <f>'Projections by Veh Type'!AG22/'Projections by Veh Type'!$F22</f>
+        <v>6.1355619478759742</v>
       </c>
       <c r="AD4" s="3">
-        <f>'Projections by Veh Type'!AF22/'Projections by Veh Type'!$D22</f>
-        <v>6.4731675223548191</v>
+        <f>'Projections by Veh Type'!AH22/'Projections by Veh Type'!$F22</f>
+        <v>6.5646722122322094</v>
       </c>
       <c r="AE4" s="3">
-        <f>'Projections by Veh Type'!AG22/'Projections by Veh Type'!$D22</f>
-        <v>6.8760055792446781</v>
+        <f>'Projections by Veh Type'!AI22/'Projections by Veh Type'!$F22</f>
+        <v>6.9937824765881542</v>
       </c>
       <c r="AF4" s="3">
-        <f>'Projections by Veh Type'!AH22/'Projections by Veh Type'!$D22</f>
-        <v>7.3569011511402671</v>
+        <f>'Projections by Veh Type'!AJ22/'Projections by Veh Type'!$F22</f>
+        <v>7.4228927409440999</v>
       </c>
       <c r="AG4" s="3">
-        <f>'Projections by Veh Type'!AI22/'Projections by Veh Type'!$D22</f>
-        <v>7.8377967230355319</v>
+        <f>'Projections by Veh Type'!AK22/'Projections by Veh Type'!$F22</f>
+        <v>7.8520030053000456</v>
       </c>
       <c r="AH4" s="3">
-        <f>'Projections by Veh Type'!AJ22/'Projections by Veh Type'!$D22</f>
-        <v>8.3186922949307966</v>
-      </c>
-      <c r="AI4" s="3">
-        <f>'Projections by Veh Type'!AK22/'Projections by Veh Type'!$D22</f>
-        <v>8.7995878668260605</v>
-      </c>
-    </row>
-    <row r="5" spans="1:35">
+        <f>'Projections by Veh Type'!AL22/'Projections by Veh Type'!$F22</f>
+        <v>8.2811132696559913</v>
+      </c>
+    </row>
+    <row r="5" spans="1:34">
       <c r="A5" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="3">
-        <f>'Projections by Veh Type'!C23/'Projections by Veh Type'!$C23</f>
+        <f>'Projections by Veh Type'!F23/'Projections by Veh Type'!$F23</f>
         <v>1</v>
       </c>
       <c r="C5" s="3">
-        <f>'Projections by Veh Type'!E23/'Projections by Veh Type'!$D23</f>
-        <v>1.0505050505050506</v>
+        <f>'Projections by Veh Type'!G23/'Projections by Veh Type'!$F23</f>
+        <v>1.0458715596330275</v>
       </c>
       <c r="D5" s="3">
-        <f>'Projections by Veh Type'!F23/'Projections by Veh Type'!$D23</f>
-        <v>1.101010101010101</v>
+        <f>'Projections by Veh Type'!H23/'Projections by Veh Type'!$F23</f>
+        <v>1.0917431192660549</v>
       </c>
       <c r="E5" s="3">
-        <f>'Projections by Veh Type'!G23/'Projections by Veh Type'!$D23</f>
-        <v>1.1515151515151516</v>
+        <f>'Projections by Veh Type'!I23/'Projections by Veh Type'!$F23</f>
+        <v>1.1334862385321145</v>
       </c>
       <c r="F5" s="3">
-        <f>'Projections by Veh Type'!H23/'Projections by Veh Type'!$D23</f>
-        <v>1.202020202020202</v>
+        <f>'Projections by Veh Type'!J23/'Projections by Veh Type'!$F23</f>
+        <v>1.175229357798163</v>
       </c>
       <c r="G5" s="3">
-        <f>'Projections by Veh Type'!I23/'Projections by Veh Type'!$D23</f>
-        <v>1.2479797979798029</v>
+        <f>'Projections by Veh Type'!K23/'Projections by Veh Type'!$F23</f>
+        <v>1.2169724770642225</v>
       </c>
       <c r="H5" s="3">
-        <f>'Projections by Veh Type'!J23/'Projections by Veh Type'!$D23</f>
-        <v>1.2939393939393915</v>
+        <f>'Projections by Veh Type'!L23/'Projections by Veh Type'!$F23</f>
+        <v>1.2587155963302818</v>
       </c>
       <c r="I5" s="3">
-        <f>'Projections by Veh Type'!K23/'Projections by Veh Type'!$D23</f>
-        <v>1.3398989898989924</v>
+        <f>'Projections by Veh Type'!M23/'Projections by Veh Type'!$F23</f>
+        <v>1.3004587155963303</v>
       </c>
       <c r="J5" s="3">
-        <f>'Projections by Veh Type'!L23/'Projections by Veh Type'!$D23</f>
-        <v>1.3858585858585932</v>
+        <f>'Projections by Veh Type'!N23/'Projections by Veh Type'!$F23</f>
+        <v>1.3322629969419004</v>
       </c>
       <c r="K5" s="3">
-        <f>'Projections by Veh Type'!M23/'Projections by Veh Type'!$D23</f>
-        <v>1.4318181818181819</v>
+        <f>'Projections by Veh Type'!O23/'Projections by Veh Type'!$F23</f>
+        <v>1.3640672782874594</v>
       </c>
       <c r="L5" s="3">
-        <f>'Projections by Veh Type'!N23/'Projections by Veh Type'!$D23</f>
-        <v>1.4668350168350217</v>
+        <f>'Projections by Veh Type'!P23/'Projections by Veh Type'!$F23</f>
+        <v>1.3958715596330298</v>
       </c>
       <c r="M5" s="3">
-        <f>'Projections by Veh Type'!O23/'Projections by Veh Type'!$D23</f>
-        <v>1.5018518518518493</v>
+        <f>'Projections by Veh Type'!Q23/'Projections by Veh Type'!$F23</f>
+        <v>1.4276758409785999</v>
       </c>
       <c r="N5" s="3">
-        <f>'Projections by Veh Type'!P23/'Projections by Veh Type'!$D23</f>
-        <v>1.5368686868686894</v>
+        <f>'Projections by Veh Type'!R23/'Projections by Veh Type'!$F23</f>
+        <v>1.4594801223241589</v>
       </c>
       <c r="O5" s="3">
-        <f>'Projections by Veh Type'!Q23/'Projections by Veh Type'!$D23</f>
-        <v>1.5718855218855292</v>
+        <f>'Projections by Veh Type'!S23/'Projections by Veh Type'!$F23</f>
+        <v>1.4784403669724793</v>
       </c>
       <c r="P5" s="3">
-        <f>'Projections by Veh Type'!R23/'Projections by Veh Type'!$D23</f>
-        <v>1.6069023569023568</v>
+        <f>'Projections by Veh Type'!T23/'Projections by Veh Type'!$F23</f>
+        <v>1.4974006116207941</v>
       </c>
       <c r="Q5" s="3">
-        <f>'Projections by Veh Type'!S23/'Projections by Veh Type'!$D23</f>
-        <v>1.6277777777777802</v>
+        <f>'Projections by Veh Type'!U23/'Projections by Veh Type'!$F23</f>
+        <v>1.5163608562691142</v>
       </c>
       <c r="R5" s="3">
-        <f>'Projections by Veh Type'!T23/'Projections by Veh Type'!$D23</f>
-        <v>1.6486531986531974</v>
+        <f>'Projections by Veh Type'!V23/'Projections by Veh Type'!$F23</f>
+        <v>1.5353211009174346</v>
       </c>
       <c r="S5" s="3">
-        <f>'Projections by Veh Type'!U23/'Projections by Veh Type'!$D23</f>
-        <v>1.6695286195286207</v>
+        <f>'Projections by Veh Type'!W23/'Projections by Veh Type'!$F23</f>
+        <v>1.5542813455657492</v>
       </c>
       <c r="T5" s="3">
-        <f>'Projections by Veh Type'!V23/'Projections by Veh Type'!$D23</f>
-        <v>1.6904040404040441</v>
+        <f>'Projections by Veh Type'!X23/'Projections by Veh Type'!$F23</f>
+        <v>1.565290519877677</v>
       </c>
       <c r="U5" s="3">
-        <f>'Projections by Veh Type'!W23/'Projections by Veh Type'!$D23</f>
-        <v>1.7112794612794613</v>
+        <f>'Projections by Veh Type'!Y23/'Projections by Veh Type'!$F23</f>
+        <v>1.5762996941896019</v>
       </c>
       <c r="V5" s="3">
-        <f>'Projections by Veh Type'!X23/'Projections by Veh Type'!$D23</f>
-        <v>1.7234006734006746</v>
+        <f>'Projections by Veh Type'!Z23/'Projections by Veh Type'!$F23</f>
+        <v>1.5873088685015295</v>
       </c>
       <c r="W5" s="3">
-        <f>'Projections by Veh Type'!Y23/'Projections by Veh Type'!$D23</f>
-        <v>1.7355218855218848</v>
+        <f>'Projections by Veh Type'!AA23/'Projections by Veh Type'!$F23</f>
+        <v>1.5983180428134574</v>
       </c>
       <c r="X5" s="3">
-        <f>'Projections by Veh Type'!Z23/'Projections by Veh Type'!$D23</f>
-        <v>1.7476430976430983</v>
+        <f>'Projections by Veh Type'!AB23/'Projections by Veh Type'!$F23</f>
+        <v>1.6093272171253823</v>
       </c>
       <c r="Y5" s="3">
-        <f>'Projections by Veh Type'!AA23/'Projections by Veh Type'!$D23</f>
-        <v>1.7597643097643116</v>
+        <f>'Projections by Veh Type'!AC23/'Projections by Veh Type'!$F23</f>
+        <v>1.6162079510703364</v>
       </c>
       <c r="Z5" s="3">
-        <f>'Projections by Veh Type'!AB23/'Projections by Veh Type'!$D23</f>
-        <v>1.7718855218855218</v>
+        <f>'Projections by Veh Type'!AD23/'Projections by Veh Type'!$F23</f>
+        <v>1.6230886850152906</v>
       </c>
       <c r="AA5" s="3">
-        <f>'Projections by Veh Type'!AC23/'Projections by Veh Type'!$D23</f>
-        <v>1.7794612794612794</v>
+        <f>'Projections by Veh Type'!AE23/'Projections by Veh Type'!$F23</f>
+        <v>1.6299694189602447</v>
       </c>
       <c r="AB5" s="3">
-        <f>'Projections by Veh Type'!AD23/'Projections by Veh Type'!$D23</f>
-        <v>1.787037037037037</v>
+        <f>'Projections by Veh Type'!AF23/'Projections by Veh Type'!$F23</f>
+        <v>1.6368501529051989</v>
       </c>
       <c r="AC5" s="3">
-        <f>'Projections by Veh Type'!AE23/'Projections by Veh Type'!$D23</f>
-        <v>1.7946127946127945</v>
+        <f>'Projections by Veh Type'!AG23/'Projections by Veh Type'!$F23</f>
+        <v>1.643730886850153</v>
       </c>
       <c r="AD5" s="3">
-        <f>'Projections by Veh Type'!AF23/'Projections by Veh Type'!$D23</f>
-        <v>1.8021885521885521</v>
+        <f>'Projections by Veh Type'!AH23/'Projections by Veh Type'!$F23</f>
+        <v>1.6474006116207947</v>
       </c>
       <c r="AE5" s="3">
-        <f>'Projections by Veh Type'!AG23/'Projections by Veh Type'!$D23</f>
-        <v>1.8097643097643097</v>
+        <f>'Projections by Veh Type'!AI23/'Projections by Veh Type'!$F23</f>
+        <v>1.6510703363914376</v>
       </c>
       <c r="AF5" s="3">
-        <f>'Projections by Veh Type'!AH23/'Projections by Veh Type'!$D23</f>
-        <v>1.8138047138047131</v>
+        <f>'Projections by Veh Type'!AJ23/'Projections by Veh Type'!$F23</f>
+        <v>1.6547400611620793</v>
       </c>
       <c r="AG5" s="3">
-        <f>'Projections by Veh Type'!AI23/'Projections by Veh Type'!$D23</f>
-        <v>1.817845117845118</v>
+        <f>'Projections by Veh Type'!AK23/'Projections by Veh Type'!$F23</f>
+        <v>1.6584097859327209</v>
       </c>
       <c r="AH5" s="3">
-        <f>'Projections by Veh Type'!AJ23/'Projections by Veh Type'!$D23</f>
-        <v>1.8218855218855217</v>
-      </c>
-      <c r="AI5" s="3">
-        <f>'Projections by Veh Type'!AK23/'Projections by Veh Type'!$D23</f>
-        <v>1.8259259259259251</v>
-      </c>
-    </row>
-    <row r="6" spans="1:35">
+        <f>'Projections by Veh Type'!AL23/'Projections by Veh Type'!$F23</f>
+        <v>1.6620795107033639</v>
+      </c>
+    </row>
+    <row r="6" spans="1:34">
       <c r="A6" t="s">
         <v>8</v>
       </c>
       <c r="B6" s="3">
-        <f>'Projections by Veh Type'!C24/'Projections by Veh Type'!$C24</f>
+        <f>'Projections by Veh Type'!F24/'Projections by Veh Type'!$F24</f>
         <v>1</v>
       </c>
       <c r="C6" s="3">
-        <f>'Projections by Veh Type'!E24/'Projections by Veh Type'!$D24</f>
-        <v>1.0505050505050506</v>
+        <f>'Projections by Veh Type'!G24/'Projections by Veh Type'!$F24</f>
+        <v>1.0458715596330275</v>
       </c>
       <c r="D6" s="3">
-        <f>'Projections by Veh Type'!F24/'Projections by Veh Type'!$D24</f>
-        <v>1.101010101010101</v>
+        <f>'Projections by Veh Type'!H24/'Projections by Veh Type'!$F24</f>
+        <v>1.0917431192660549</v>
       </c>
       <c r="E6" s="3">
-        <f>'Projections by Veh Type'!G24/'Projections by Veh Type'!$D24</f>
-        <v>1.1515151515151516</v>
+        <f>'Projections by Veh Type'!I24/'Projections by Veh Type'!$F24</f>
+        <v>1.1334862385321145</v>
       </c>
       <c r="F6" s="3">
-        <f>'Projections by Veh Type'!H24/'Projections by Veh Type'!$D24</f>
-        <v>1.202020202020202</v>
+        <f>'Projections by Veh Type'!J24/'Projections by Veh Type'!$F24</f>
+        <v>1.175229357798163</v>
       </c>
       <c r="G6" s="3">
-        <f>'Projections by Veh Type'!I24/'Projections by Veh Type'!$D24</f>
-        <v>1.2479797979798029</v>
+        <f>'Projections by Veh Type'!K24/'Projections by Veh Type'!$F24</f>
+        <v>1.2169724770642225</v>
       </c>
       <c r="H6" s="3">
-        <f>'Projections by Veh Type'!J24/'Projections by Veh Type'!$D24</f>
-        <v>1.2939393939393915</v>
+        <f>'Projections by Veh Type'!L24/'Projections by Veh Type'!$F24</f>
+        <v>1.2587155963302818</v>
       </c>
       <c r="I6" s="3">
-        <f>'Projections by Veh Type'!K24/'Projections by Veh Type'!$D24</f>
-        <v>1.3398989898989924</v>
+        <f>'Projections by Veh Type'!M24/'Projections by Veh Type'!$F24</f>
+        <v>1.3004587155963303</v>
       </c>
       <c r="J6" s="3">
-        <f>'Projections by Veh Type'!L24/'Projections by Veh Type'!$D24</f>
-        <v>1.3858585858585932</v>
+        <f>'Projections by Veh Type'!N24/'Projections by Veh Type'!$F24</f>
+        <v>1.3322629969419004</v>
       </c>
       <c r="K6" s="3">
-        <f>'Projections by Veh Type'!M24/'Projections by Veh Type'!$D24</f>
-        <v>1.4318181818181819</v>
+        <f>'Projections by Veh Type'!O24/'Projections by Veh Type'!$F24</f>
+        <v>1.3640672782874594</v>
       </c>
       <c r="L6" s="3">
-        <f>'Projections by Veh Type'!N24/'Projections by Veh Type'!$D24</f>
-        <v>1.4668350168350217</v>
+        <f>'Projections by Veh Type'!P24/'Projections by Veh Type'!$F24</f>
+        <v>1.3958715596330298</v>
       </c>
       <c r="M6" s="3">
-        <f>'Projections by Veh Type'!O24/'Projections by Veh Type'!$D24</f>
-        <v>1.5018518518518493</v>
+        <f>'Projections by Veh Type'!Q24/'Projections by Veh Type'!$F24</f>
+        <v>1.4276758409785999</v>
       </c>
       <c r="N6" s="3">
-        <f>'Projections by Veh Type'!P24/'Projections by Veh Type'!$D24</f>
-        <v>1.5368686868686894</v>
+        <f>'Projections by Veh Type'!R24/'Projections by Veh Type'!$F24</f>
+        <v>1.4594801223241589</v>
       </c>
       <c r="O6" s="3">
-        <f>'Projections by Veh Type'!Q24/'Projections by Veh Type'!$D24</f>
-        <v>1.5718855218855292</v>
+        <f>'Projections by Veh Type'!S24/'Projections by Veh Type'!$F24</f>
+        <v>1.4784403669724793</v>
       </c>
       <c r="P6" s="3">
-        <f>'Projections by Veh Type'!R24/'Projections by Veh Type'!$D24</f>
-        <v>1.6069023569023568</v>
+        <f>'Projections by Veh Type'!T24/'Projections by Veh Type'!$F24</f>
+        <v>1.4974006116207941</v>
       </c>
       <c r="Q6" s="3">
-        <f>'Projections by Veh Type'!S24/'Projections by Veh Type'!$D24</f>
-        <v>1.6277777777777802</v>
+        <f>'Projections by Veh Type'!U24/'Projections by Veh Type'!$F24</f>
+        <v>1.5163608562691142</v>
       </c>
       <c r="R6" s="3">
-        <f>'Projections by Veh Type'!T24/'Projections by Veh Type'!$D24</f>
-        <v>1.6486531986531974</v>
+        <f>'Projections by Veh Type'!V24/'Projections by Veh Type'!$F24</f>
+        <v>1.5353211009174346</v>
       </c>
       <c r="S6" s="3">
-        <f>'Projections by Veh Type'!U24/'Projections by Veh Type'!$D24</f>
-        <v>1.6695286195286207</v>
+        <f>'Projections by Veh Type'!W24/'Projections by Veh Type'!$F24</f>
+        <v>1.5542813455657492</v>
       </c>
       <c r="T6" s="3">
-        <f>'Projections by Veh Type'!V24/'Projections by Veh Type'!$D24</f>
-        <v>1.6904040404040441</v>
+        <f>'Projections by Veh Type'!X24/'Projections by Veh Type'!$F24</f>
+        <v>1.565290519877677</v>
       </c>
       <c r="U6" s="3">
-        <f>'Projections by Veh Type'!W24/'Projections by Veh Type'!$D24</f>
-        <v>1.7112794612794613</v>
+        <f>'Projections by Veh Type'!Y24/'Projections by Veh Type'!$F24</f>
+        <v>1.5762996941896019</v>
       </c>
       <c r="V6" s="3">
-        <f>'Projections by Veh Type'!X24/'Projections by Veh Type'!$D24</f>
-        <v>1.7234006734006746</v>
+        <f>'Projections by Veh Type'!Z24/'Projections by Veh Type'!$F24</f>
+        <v>1.5873088685015295</v>
       </c>
       <c r="W6" s="3">
-        <f>'Projections by Veh Type'!Y24/'Projections by Veh Type'!$D24</f>
-        <v>1.7355218855218848</v>
+        <f>'Projections by Veh Type'!AA24/'Projections by Veh Type'!$F24</f>
+        <v>1.5983180428134574</v>
       </c>
       <c r="X6" s="3">
-        <f>'Projections by Veh Type'!Z24/'Projections by Veh Type'!$D24</f>
-        <v>1.7476430976430983</v>
+        <f>'Projections by Veh Type'!AB24/'Projections by Veh Type'!$F24</f>
+        <v>1.6093272171253823</v>
       </c>
       <c r="Y6" s="3">
-        <f>'Projections by Veh Type'!AA24/'Projections by Veh Type'!$D24</f>
-        <v>1.7597643097643116</v>
+        <f>'Projections by Veh Type'!AC24/'Projections by Veh Type'!$F24</f>
+        <v>1.6162079510703364</v>
       </c>
       <c r="Z6" s="3">
-        <f>'Projections by Veh Type'!AB24/'Projections by Veh Type'!$D24</f>
-        <v>1.7718855218855218</v>
+        <f>'Projections by Veh Type'!AD24/'Projections by Veh Type'!$F24</f>
+        <v>1.6230886850152906</v>
       </c>
       <c r="AA6" s="3">
-        <f>'Projections by Veh Type'!AC24/'Projections by Veh Type'!$D24</f>
-        <v>1.7794612794612794</v>
+        <f>'Projections by Veh Type'!AE24/'Projections by Veh Type'!$F24</f>
+        <v>1.6299694189602447</v>
       </c>
       <c r="AB6" s="3">
-        <f>'Projections by Veh Type'!AD24/'Projections by Veh Type'!$D24</f>
-        <v>1.787037037037037</v>
+        <f>'Projections by Veh Type'!AF24/'Projections by Veh Type'!$F24</f>
+        <v>1.6368501529051989</v>
       </c>
       <c r="AC6" s="3">
-        <f>'Projections by Veh Type'!AE24/'Projections by Veh Type'!$D24</f>
-        <v>1.7946127946127945</v>
+        <f>'Projections by Veh Type'!AG24/'Projections by Veh Type'!$F24</f>
+        <v>1.643730886850153</v>
       </c>
       <c r="AD6" s="3">
-        <f>'Projections by Veh Type'!AF24/'Projections by Veh Type'!$D24</f>
-        <v>1.8021885521885521</v>
+        <f>'Projections by Veh Type'!AH24/'Projections by Veh Type'!$F24</f>
+        <v>1.6474006116207947</v>
       </c>
       <c r="AE6" s="3">
-        <f>'Projections by Veh Type'!AG24/'Projections by Veh Type'!$D24</f>
-        <v>1.8097643097643097</v>
+        <f>'Projections by Veh Type'!AI24/'Projections by Veh Type'!$F24</f>
+        <v>1.6510703363914376</v>
       </c>
       <c r="AF6" s="3">
-        <f>'Projections by Veh Type'!AH24/'Projections by Veh Type'!$D24</f>
-        <v>1.8138047138047131</v>
+        <f>'Projections by Veh Type'!AJ24/'Projections by Veh Type'!$F24</f>
+        <v>1.6547400611620793</v>
       </c>
       <c r="AG6" s="3">
-        <f>'Projections by Veh Type'!AI24/'Projections by Veh Type'!$D24</f>
-        <v>1.817845117845118</v>
+        <f>'Projections by Veh Type'!AK24/'Projections by Veh Type'!$F24</f>
+        <v>1.6584097859327209</v>
       </c>
       <c r="AH6" s="3">
-        <f>'Projections by Veh Type'!AJ24/'Projections by Veh Type'!$D24</f>
-        <v>1.8218855218855217</v>
-      </c>
-      <c r="AI6" s="3">
-        <f>'Projections by Veh Type'!AK24/'Projections by Veh Type'!$D24</f>
-        <v>1.8259259259259251</v>
-      </c>
-    </row>
-    <row r="7" spans="1:35">
+        <f>'Projections by Veh Type'!AL24/'Projections by Veh Type'!$F24</f>
+        <v>1.6620795107033639</v>
+      </c>
+    </row>
+    <row r="7" spans="1:34">
       <c r="A7" t="s">
         <v>9</v>
       </c>
       <c r="B7" s="3">
-        <f>'Projections by Veh Type'!C25/'Projections by Veh Type'!$C25</f>
+        <f>'Projections by Veh Type'!F25/'Projections by Veh Type'!$F25</f>
         <v>1</v>
       </c>
       <c r="C7" s="3">
-        <f>'Projections by Veh Type'!E25/'Projections by Veh Type'!$D25</f>
-        <v>1.0602269160569811</v>
+        <f>'Projections by Veh Type'!G25/'Projections by Veh Type'!$F25</f>
+        <v>1.0537522513920541</v>
       </c>
       <c r="D7" s="3">
-        <f>'Projections by Veh Type'!F25/'Projections by Veh Type'!$D25</f>
-        <v>1.1204538321139801</v>
+        <f>'Projections by Veh Type'!H25/'Projections by Veh Type'!$F25</f>
+        <v>1.1075045027841079</v>
       </c>
       <c r="E7" s="3">
-        <f>'Projections by Veh Type'!G25/'Projections by Veh Type'!$D25</f>
-        <v>1.1806807481709609</v>
+        <f>'Projections by Veh Type'!I25/'Projections by Veh Type'!$F25</f>
+        <v>1.1519802138114337</v>
       </c>
       <c r="F7" s="3">
-        <f>'Projections by Veh Type'!H25/'Projections by Veh Type'!$D25</f>
-        <v>1.240907664227942</v>
+        <f>'Projections by Veh Type'!J25/'Projections by Veh Type'!$F25</f>
+        <v>1.1964559248387594</v>
       </c>
       <c r="G7" s="3">
-        <f>'Projections by Veh Type'!I25/'Projections by Veh Type'!$D25</f>
-        <v>1.2907406450845029</v>
+        <f>'Projections by Veh Type'!K25/'Projections by Veh Type'!$F25</f>
+        <v>1.2409316358660689</v>
       </c>
       <c r="H7" s="3">
-        <f>'Projections by Veh Type'!J25/'Projections by Veh Type'!$D25</f>
-        <v>1.3405736259410641</v>
+        <f>'Projections by Veh Type'!L25/'Projections by Veh Type'!$F25</f>
+        <v>1.2854073468933784</v>
       </c>
       <c r="I7" s="3">
-        <f>'Projections by Veh Type'!K25/'Projections by Veh Type'!$D25</f>
-        <v>1.3904066067976069</v>
+        <f>'Projections by Veh Type'!M25/'Projections by Veh Type'!$F25</f>
+        <v>1.3298830579207042</v>
       </c>
       <c r="J7" s="3">
-        <f>'Projections by Veh Type'!L25/'Projections by Veh Type'!$D25</f>
-        <v>1.4402395876541498</v>
+        <f>'Projections by Veh Type'!N25/'Projections by Veh Type'!$F25</f>
+        <v>1.3808388043505511</v>
       </c>
       <c r="K7" s="3">
-        <f>'Projections by Veh Type'!M25/'Projections by Veh Type'!$D25</f>
-        <v>1.490072568510711</v>
+        <f>'Projections by Veh Type'!O25/'Projections by Veh Type'!$F25</f>
+        <v>1.431794550780398</v>
       </c>
       <c r="L7" s="3">
-        <f>'Projections by Veh Type'!N25/'Projections by Veh Type'!$D25</f>
-        <v>1.5471661298662611</v>
+        <f>'Projections by Veh Type'!P25/'Projections by Veh Type'!$F25</f>
+        <v>1.4827502972102287</v>
       </c>
       <c r="M7" s="3">
-        <f>'Projections by Veh Type'!O25/'Projections by Veh Type'!$D25</f>
-        <v>1.6042596912218114</v>
+        <f>'Projections by Veh Type'!Q25/'Projections by Veh Type'!$F25</f>
+        <v>1.5337060436400756</v>
       </c>
       <c r="N7" s="3">
-        <f>'Projections by Veh Type'!P25/'Projections by Veh Type'!$D25</f>
-        <v>1.6613532525773436</v>
+        <f>'Projections by Veh Type'!R25/'Projections by Veh Type'!$F25</f>
+        <v>1.5846617900699225</v>
       </c>
       <c r="O7" s="3">
-        <f>'Projections by Veh Type'!Q25/'Projections by Veh Type'!$D25</f>
-        <v>1.7184468139328937</v>
+        <f>'Projections by Veh Type'!S25/'Projections by Veh Type'!$F25</f>
+        <v>1.6454141587969791</v>
       </c>
       <c r="P7" s="3">
-        <f>'Projections by Veh Type'!R25/'Projections by Veh Type'!$D25</f>
-        <v>1.775540375288444</v>
+        <f>'Projections by Veh Type'!T25/'Projections by Veh Type'!$F25</f>
+        <v>1.7061665275240359</v>
       </c>
       <c r="Q7" s="3">
-        <f>'Projections by Veh Type'!S25/'Projections by Veh Type'!$D25</f>
-        <v>1.843610599638676</v>
+        <f>'Projections by Veh Type'!U25/'Projections by Veh Type'!$F25</f>
+        <v>1.7669188962510924</v>
       </c>
       <c r="R7" s="3">
-        <f>'Projections by Veh Type'!T25/'Projections by Veh Type'!$D25</f>
-        <v>1.9116808239889083</v>
+        <f>'Projections by Veh Type'!V25/'Projections by Veh Type'!$F25</f>
+        <v>1.8276712649781492</v>
       </c>
       <c r="S7" s="3">
-        <f>'Projections by Veh Type'!U25/'Projections by Veh Type'!$D25</f>
-        <v>1.9797510483391405</v>
+        <f>'Projections by Veh Type'!W25/'Projections by Veh Type'!$F25</f>
+        <v>1.8884236337052058</v>
       </c>
       <c r="T7" s="3">
-        <f>'Projections by Veh Type'!V25/'Projections by Veh Type'!$D25</f>
-        <v>2.0478212726893728</v>
+        <f>'Projections by Veh Type'!X25/'Projections by Veh Type'!$F25</f>
+        <v>1.9608806703362469</v>
       </c>
       <c r="U7" s="3">
-        <f>'Projections by Veh Type'!W25/'Projections by Veh Type'!$D25</f>
-        <v>2.115891497039605</v>
+        <f>'Projections by Veh Type'!Y25/'Projections by Veh Type'!$F25</f>
+        <v>2.0333377069673366</v>
       </c>
       <c r="V7" s="3">
-        <f>'Projections by Veh Type'!X25/'Projections by Veh Type'!$D25</f>
-        <v>2.1970762613964778</v>
+        <f>'Projections by Veh Type'!Z25/'Projections by Veh Type'!$F25</f>
+        <v>2.1057947435983939</v>
       </c>
       <c r="W7" s="3">
-        <f>'Projections by Veh Type'!Y25/'Projections by Veh Type'!$D25</f>
-        <v>2.2782610257534053</v>
+        <f>'Projections by Veh Type'!AA25/'Projections by Veh Type'!$F25</f>
+        <v>2.1782517802294517</v>
       </c>
       <c r="X7" s="3">
-        <f>'Projections by Veh Type'!Z25/'Projections by Veh Type'!$D25</f>
-        <v>2.3594457901102968</v>
+        <f>'Projections by Veh Type'!AB25/'Projections by Veh Type'!$F25</f>
+        <v>2.2507088168605089</v>
       </c>
       <c r="Y7" s="3">
-        <f>'Projections by Veh Type'!AA25/'Projections by Veh Type'!$D25</f>
-        <v>2.4406305544671878</v>
+        <f>'Projections by Veh Type'!AC25/'Projections by Veh Type'!$F25</f>
+        <v>2.3371382346969636</v>
       </c>
       <c r="Z7" s="3">
-        <f>'Projections by Veh Type'!AB25/'Projections by Veh Type'!$D25</f>
-        <v>2.5218153188240793</v>
+        <f>'Projections by Veh Type'!AD25/'Projections by Veh Type'!$F25</f>
+        <v>2.4235676525334022</v>
       </c>
       <c r="AA7" s="3">
-        <f>'Projections by Veh Type'!AC25/'Projections by Veh Type'!$D25</f>
-        <v>2.6186554912463151</v>
+        <f>'Projections by Veh Type'!AE25/'Projections by Veh Type'!$F25</f>
+        <v>2.5099970703698085</v>
       </c>
       <c r="AB7" s="3">
-        <f>'Projections by Veh Type'!AD25/'Projections by Veh Type'!$D25</f>
-        <v>2.7154956636685332</v>
+        <f>'Projections by Veh Type'!AF25/'Projections by Veh Type'!$F25</f>
+        <v>2.5964264882062467</v>
       </c>
       <c r="AC7" s="3">
-        <f>'Projections by Veh Type'!AE25/'Projections by Veh Type'!$D25</f>
-        <v>2.8123358360907149</v>
+        <f>'Projections by Veh Type'!AG25/'Projections by Veh Type'!$F25</f>
+        <v>2.6828559060426853</v>
       </c>
       <c r="AD7" s="3">
-        <f>'Projections by Veh Type'!AF25/'Projections by Veh Type'!$D25</f>
-        <v>2.9091760085129326</v>
+        <f>'Projections by Veh Type'!AH25/'Projections by Veh Type'!$F25</f>
+        <v>2.785967481127769</v>
       </c>
       <c r="AE7" s="3">
-        <f>'Projections by Veh Type'!AG25/'Projections by Veh Type'!$D25</f>
-        <v>3.0060161809351507</v>
+        <f>'Projections by Veh Type'!AI25/'Projections by Veh Type'!$F25</f>
+        <v>2.8890790562128208</v>
       </c>
       <c r="AF7" s="3">
-        <f>'Projections by Veh Type'!AH25/'Projections by Veh Type'!$D25</f>
-        <v>3.1215479403745414</v>
+        <f>'Projections by Veh Type'!AJ25/'Projections by Veh Type'!$F25</f>
+        <v>2.9921906312978725</v>
       </c>
       <c r="AG7" s="3">
-        <f>'Projections by Veh Type'!AI25/'Projections by Veh Type'!$D25</f>
-        <v>3.2370796998138958</v>
+        <f>'Projections by Veh Type'!AK25/'Projections by Veh Type'!$F25</f>
+        <v>3.0953022063829239</v>
       </c>
       <c r="AH7" s="3">
-        <f>'Projections by Veh Type'!AJ25/'Projections by Veh Type'!$D25</f>
-        <v>3.3526114592532501</v>
-      </c>
-      <c r="AI7" s="3">
-        <f>'Projections by Veh Type'!AK25/'Projections by Veh Type'!$D25</f>
-        <v>3.4681432186926049</v>
-      </c>
-    </row>
-    <row r="9" spans="1:35">
+        <f>'Projections by Veh Type'!AL25/'Projections by Veh Type'!$F25</f>
+        <v>3.1984137814679756</v>
+      </c>
+    </row>
+    <row r="9" spans="1:34">
+      <c r="B9" s="7"/>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
@@ -83397,7 +83336,6 @@
       <c r="AF9" s="7"/>
       <c r="AG9" s="7"/>
       <c r="AH9" s="7"/>
-      <c r="AI9" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -83405,970 +83343,945 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:AI7"/>
+  <dimension ref="A1:AH7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="AC9" sqref="AC9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="16.5703125" customWidth="1"/>
+    <col min="1" max="1" width="16.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="75">
+    <row r="1" spans="1:34" ht="71.25">
       <c r="A1" s="20" t="s">
         <v>112</v>
       </c>
       <c r="B1">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="C1">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D1">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="E1">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F1">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="G1">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="H1">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="I1">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="J1">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="K1">
-        <v>2026</v>
+        <v>2027</v>
       </c>
       <c r="L1">
-        <v>2027</v>
+        <v>2028</v>
       </c>
       <c r="M1">
-        <v>2028</v>
+        <v>2029</v>
       </c>
       <c r="N1">
-        <v>2029</v>
+        <v>2030</v>
       </c>
       <c r="O1">
-        <v>2030</v>
+        <v>2031</v>
       </c>
       <c r="P1">
-        <v>2031</v>
+        <v>2032</v>
       </c>
       <c r="Q1">
-        <v>2032</v>
+        <v>2033</v>
       </c>
       <c r="R1">
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="S1">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="T1">
-        <v>2035</v>
+        <v>2036</v>
       </c>
       <c r="U1">
-        <v>2036</v>
+        <v>2037</v>
       </c>
       <c r="V1">
-        <v>2037</v>
+        <v>2038</v>
       </c>
       <c r="W1">
-        <v>2038</v>
+        <v>2039</v>
       </c>
       <c r="X1">
-        <v>2039</v>
+        <v>2040</v>
       </c>
       <c r="Y1">
-        <v>2040</v>
+        <v>2041</v>
       </c>
       <c r="Z1">
-        <v>2041</v>
+        <v>2042</v>
       </c>
       <c r="AA1">
-        <v>2042</v>
+        <v>2043</v>
       </c>
       <c r="AB1">
-        <v>2043</v>
+        <v>2044</v>
       </c>
       <c r="AC1">
-        <v>2044</v>
+        <v>2045</v>
       </c>
       <c r="AD1">
-        <v>2045</v>
+        <v>2046</v>
       </c>
       <c r="AE1">
-        <v>2046</v>
+        <v>2047</v>
       </c>
       <c r="AF1">
-        <v>2047</v>
+        <v>2048</v>
       </c>
       <c r="AG1">
-        <v>2048</v>
+        <v>2049</v>
       </c>
       <c r="AH1">
-        <v>2049</v>
-      </c>
-      <c r="AI1">
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35">
+    <row r="2" spans="1:34">
       <c r="A2" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="3">
-        <f>'Projections by Veh Type'!C26/'Projections by Veh Type'!$C26</f>
+        <f>'Projections by Veh Type'!F26/'Projections by Veh Type'!$F26</f>
         <v>1</v>
       </c>
       <c r="C2" s="3">
-        <f>'Projections by Veh Type'!E26/'Projections by Veh Type'!$D26</f>
-        <v>1.06060247698664</v>
+        <f>'Projections by Veh Type'!G26/'Projections by Veh Type'!$F26</f>
+        <v>1.0540512033699823</v>
       </c>
       <c r="D2" s="3">
-        <f>'Projections by Veh Type'!F26/'Projections by Veh Type'!$D26</f>
-        <v>1.1212049539732531</v>
+        <f>'Projections by Veh Type'!H26/'Projections by Veh Type'!$F26</f>
+        <v>1.1081024067399645</v>
       </c>
       <c r="E2" s="3">
-        <f>'Projections by Veh Type'!G26/'Projections by Veh Type'!$D26</f>
-        <v>1.1818074309598929</v>
+        <f>'Projections by Veh Type'!I26/'Projections by Veh Type'!$F26</f>
+        <v>1.1624892864633101</v>
       </c>
       <c r="F2" s="3">
-        <f>'Projections by Veh Type'!H26/'Projections by Veh Type'!$D26</f>
-        <v>1.2424099079465329</v>
+        <f>'Projections by Veh Type'!J26/'Projections by Veh Type'!$F26</f>
+        <v>1.2168761661866794</v>
       </c>
       <c r="G2" s="3">
-        <f>'Projections by Veh Type'!I26/'Projections by Veh Type'!$D26</f>
-        <v>1.3033887469234953</v>
+        <f>'Projections by Veh Type'!K26/'Projections by Veh Type'!$F26</f>
+        <v>1.2712630459100489</v>
       </c>
       <c r="H2" s="3">
-        <f>'Projections by Veh Type'!J26/'Projections by Veh Type'!$D26</f>
-        <v>1.3643675859004845</v>
+        <f>'Projections by Veh Type'!L26/'Projections by Veh Type'!$F26</f>
+        <v>1.3256499256334182</v>
       </c>
       <c r="I2" s="3">
-        <f>'Projections by Veh Type'!K26/'Projections by Veh Type'!$D26</f>
-        <v>1.4253464248774739</v>
+        <f>'Projections by Veh Type'!M26/'Projections by Veh Type'!$F26</f>
+        <v>1.3800368053567875</v>
       </c>
       <c r="J2" s="3">
-        <f>'Projections by Veh Type'!L26/'Projections by Veh Type'!$D26</f>
-        <v>1.4863252638544631</v>
+        <f>'Projections by Veh Type'!N26/'Projections by Veh Type'!$F26</f>
+        <v>1.437251592542343</v>
       </c>
       <c r="K2" s="3">
-        <f>'Projections by Veh Type'!M26/'Projections by Veh Type'!$D26</f>
-        <v>1.5473041028314523</v>
+        <f>'Projections by Veh Type'!O26/'Projections by Veh Type'!$F26</f>
+        <v>1.494466379727946</v>
       </c>
       <c r="L2" s="3">
-        <f>'Projections by Veh Type'!N26/'Projections by Veh Type'!$D26</f>
-        <v>1.6114536056644222</v>
+        <f>'Projections by Veh Type'!P26/'Projections by Veh Type'!$F26</f>
+        <v>1.5516811669135255</v>
       </c>
       <c r="M2" s="3">
-        <f>'Projections by Veh Type'!O26/'Projections by Veh Type'!$D26</f>
-        <v>1.6756031084974461</v>
+        <f>'Projections by Veh Type'!Q26/'Projections by Veh Type'!$F26</f>
+        <v>1.6088959540991286</v>
       </c>
       <c r="N2" s="3">
-        <f>'Projections by Veh Type'!P26/'Projections by Veh Type'!$D26</f>
-        <v>1.7397526113304429</v>
+        <f>'Projections by Veh Type'!R26/'Projections by Veh Type'!$F26</f>
+        <v>1.666110741284708</v>
       </c>
       <c r="O2" s="3">
-        <f>'Projections by Veh Type'!Q26/'Projections by Veh Type'!$D26</f>
-        <v>1.8039021141634666</v>
+        <f>'Projections by Veh Type'!S26/'Projections by Veh Type'!$F26</f>
+        <v>1.7304141680099721</v>
       </c>
       <c r="P2" s="3">
-        <f>'Projections by Veh Type'!R26/'Projections by Veh Type'!$D26</f>
-        <v>1.8680516169964636</v>
+        <f>'Projections by Veh Type'!T26/'Projections by Veh Type'!$F26</f>
+        <v>1.7947175947352121</v>
       </c>
       <c r="Q2" s="3">
-        <f>'Projections by Veh Type'!S26/'Projections by Veh Type'!$D26</f>
-        <v>1.9401489375982857</v>
+        <f>'Projections by Veh Type'!U26/'Projections by Veh Type'!$F26</f>
+        <v>1.8590210214604284</v>
       </c>
       <c r="R2" s="3">
-        <f>'Projections by Veh Type'!T26/'Projections by Veh Type'!$D26</f>
-        <v>2.0122462582000811</v>
+        <f>'Projections by Veh Type'!V26/'Projections by Veh Type'!$F26</f>
+        <v>1.9233244481856684</v>
       </c>
       <c r="S2" s="3">
-        <f>'Projections by Veh Type'!U26/'Projections by Veh Type'!$D26</f>
-        <v>2.0843435788018492</v>
+        <f>'Projections by Veh Type'!W26/'Projections by Veh Type'!$F26</f>
+        <v>1.9876278749109084</v>
       </c>
       <c r="T2" s="3">
-        <f>'Projections by Veh Type'!V26/'Projections by Veh Type'!$D26</f>
-        <v>2.1564408994036448</v>
+        <f>'Projections by Veh Type'!X26/'Projections by Veh Type'!$F26</f>
+        <v>2.0622904660235544</v>
       </c>
       <c r="U2" s="3">
-        <f>'Projections by Veh Type'!W26/'Projections by Veh Type'!$D26</f>
-        <v>2.22853822000544</v>
+        <f>'Projections by Veh Type'!Y26/'Projections by Veh Type'!$F26</f>
+        <v>2.1369530571362003</v>
       </c>
       <c r="V2" s="3">
-        <f>'Projections by Veh Type'!X26/'Projections by Veh Type'!$D26</f>
-        <v>2.312250287037418</v>
+        <f>'Projections by Veh Type'!Z26/'Projections by Veh Type'!$F26</f>
+        <v>2.2116156482488463</v>
       </c>
       <c r="W2" s="3">
-        <f>'Projections by Veh Type'!Y26/'Projections by Veh Type'!$D26</f>
-        <v>2.3959623540693959</v>
+        <f>'Projections by Veh Type'!AA26/'Projections by Veh Type'!$F26</f>
+        <v>2.2862782393614927</v>
       </c>
       <c r="X2" s="3">
-        <f>'Projections by Veh Type'!Z26/'Projections by Veh Type'!$D26</f>
-        <v>2.4796744211013739</v>
+        <f>'Projections by Veh Type'!AB26/'Projections by Veh Type'!$F26</f>
+        <v>2.3609408304741386</v>
       </c>
       <c r="Y2" s="3">
-        <f>'Projections by Veh Type'!AA26/'Projections by Veh Type'!$D26</f>
-        <v>2.5633864881333523</v>
+        <f>'Projections by Veh Type'!AC26/'Projections by Veh Type'!$F26</f>
+        <v>2.44885795420105</v>
       </c>
       <c r="Z2" s="3">
-        <f>'Projections by Veh Type'!AB26/'Projections by Veh Type'!$D26</f>
-        <v>2.6470985551653303</v>
+        <f>'Projections by Veh Type'!AD26/'Projections by Veh Type'!$F26</f>
+        <v>2.5367750779279614</v>
       </c>
       <c r="AA2" s="3">
-        <f>'Projections by Veh Type'!AC26/'Projections by Veh Type'!$D26</f>
-        <v>2.7456716698270229</v>
+        <f>'Projections by Veh Type'!AE26/'Projections by Veh Type'!$F26</f>
+        <v>2.6246922016548728</v>
       </c>
       <c r="AB2" s="3">
-        <f>'Projections by Veh Type'!AD26/'Projections by Veh Type'!$D26</f>
-        <v>2.8442447844887155</v>
+        <f>'Projections by Veh Type'!AF26/'Projections by Veh Type'!$F26</f>
+        <v>2.7126093253817842</v>
       </c>
       <c r="AC2" s="3">
-        <f>'Projections by Veh Type'!AE26/'Projections by Veh Type'!$D26</f>
-        <v>2.9428178991504081</v>
+        <f>'Projections by Veh Type'!AG26/'Projections by Veh Type'!$F26</f>
+        <v>2.8005264491087196</v>
       </c>
       <c r="AD2" s="3">
-        <f>'Projections by Veh Type'!AF26/'Projections by Veh Type'!$D26</f>
-        <v>3.0413910138121003</v>
+        <f>'Projections by Veh Type'!AH26/'Projections by Veh Type'!$F26</f>
+        <v>2.9048307480242705</v>
       </c>
       <c r="AE2" s="3">
-        <f>'Projections by Veh Type'!AG26/'Projections by Veh Type'!$D26</f>
-        <v>3.13996412847382</v>
+        <f>'Projections by Veh Type'!AI26/'Projections by Veh Type'!$F26</f>
+        <v>3.0091350469397975</v>
       </c>
       <c r="AF2" s="3">
-        <f>'Projections by Veh Type'!AH26/'Projections by Veh Type'!$D26</f>
-        <v>3.2569106251386426</v>
+        <f>'Projections by Veh Type'!AJ26/'Projections by Veh Type'!$F26</f>
+        <v>3.1134393458553484</v>
       </c>
       <c r="AG2" s="3">
-        <f>'Projections by Veh Type'!AI26/'Projections by Veh Type'!$D26</f>
-        <v>3.3738571218034386</v>
+        <f>'Projections by Veh Type'!AK26/'Projections by Veh Type'!$F26</f>
+        <v>3.2177436447708994</v>
       </c>
       <c r="AH2" s="3">
-        <f>'Projections by Veh Type'!AJ26/'Projections by Veh Type'!$D26</f>
-        <v>3.4908036184682611</v>
-      </c>
-      <c r="AI2" s="3">
-        <f>'Projections by Veh Type'!AK26/'Projections by Veh Type'!$D26</f>
-        <v>3.6077501151330837</v>
-      </c>
-    </row>
-    <row r="3" spans="1:35">
+        <f>'Projections by Veh Type'!AL26/'Projections by Veh Type'!$F26</f>
+        <v>3.3220479436864268</v>
+      </c>
+    </row>
+    <row r="3" spans="1:34">
       <c r="A3" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="3">
-        <f>'Projections by Veh Type'!C27/'Projections by Veh Type'!$C27</f>
+        <f>'Projections by Veh Type'!F27/'Projections by Veh Type'!$F27</f>
         <v>1</v>
       </c>
       <c r="C3" s="3">
-        <f>'Projections by Veh Type'!E27/'Projections by Veh Type'!$D27</f>
-        <v>1.0672079311378204</v>
+        <f>'Projections by Veh Type'!G27/'Projections by Veh Type'!$F27</f>
+        <v>1.0592445269612303</v>
       </c>
       <c r="D3" s="3">
-        <f>'Projections by Veh Type'!F27/'Projections by Veh Type'!$D27</f>
-        <v>1.1344158622756408</v>
+        <f>'Projections by Veh Type'!H27/'Projections by Veh Type'!$F27</f>
+        <v>1.1184890539224466</v>
       </c>
       <c r="E3" s="3">
-        <f>'Projections by Veh Type'!G27/'Projections by Veh Type'!$D27</f>
-        <v>1.2016237934134775</v>
+        <f>'Projections by Veh Type'!I27/'Projections by Veh Type'!$F27</f>
+        <v>1.2006753823022638</v>
       </c>
       <c r="F3" s="3">
-        <f>'Projections by Veh Type'!H27/'Projections by Veh Type'!$D27</f>
-        <v>1.2688317245512981</v>
+        <f>'Projections by Veh Type'!J27/'Projections by Veh Type'!$F27</f>
+        <v>1.2828617106820954</v>
       </c>
       <c r="G3" s="3">
-        <f>'Projections by Veh Type'!I27/'Projections by Veh Type'!$D27</f>
-        <v>1.3620651991275574</v>
+        <f>'Projections by Veh Type'!K27/'Projections by Veh Type'!$F27</f>
+        <v>1.3650480390618984</v>
       </c>
       <c r="H3" s="3">
-        <f>'Projections by Veh Type'!J27/'Projections by Veh Type'!$D27</f>
-        <v>1.4552986737038329</v>
+        <f>'Projections by Veh Type'!L27/'Projections by Veh Type'!$F27</f>
+        <v>1.4472343674417301</v>
       </c>
       <c r="I3" s="3">
-        <f>'Projections by Veh Type'!K27/'Projections by Veh Type'!$D27</f>
-        <v>1.5485321482800765</v>
+        <f>'Projections by Veh Type'!M27/'Projections by Veh Type'!$F27</f>
+        <v>1.5294206958215331</v>
       </c>
       <c r="J3" s="3">
-        <f>'Projections by Veh Type'!L27/'Projections by Veh Type'!$D27</f>
-        <v>1.641765622856352</v>
+        <f>'Projections by Veh Type'!N27/'Projections by Veh Type'!$F27</f>
+        <v>1.6432433994499265</v>
       </c>
       <c r="K3" s="3">
-        <f>'Projections by Veh Type'!M27/'Projections by Veh Type'!$D27</f>
-        <v>1.7349990974325953</v>
+        <f>'Projections by Veh Type'!O27/'Projections by Veh Type'!$F27</f>
+        <v>1.7570661030782631</v>
       </c>
       <c r="L3" s="3">
-        <f>'Projections by Veh Type'!N27/'Projections by Veh Type'!$D27</f>
-        <v>1.8641213779157439</v>
+        <f>'Projections by Veh Type'!P27/'Projections by Veh Type'!$F27</f>
+        <v>1.8708888067065998</v>
       </c>
       <c r="M3" s="3">
-        <f>'Projections by Veh Type'!O27/'Projections by Veh Type'!$D27</f>
-        <v>1.993243658398828</v>
+        <f>'Projections by Veh Type'!Q27/'Projections by Veh Type'!$F27</f>
+        <v>1.9847115103349648</v>
       </c>
       <c r="N3" s="3">
-        <f>'Projections by Veh Type'!P27/'Projections by Veh Type'!$D27</f>
-        <v>2.1223659388819125</v>
+        <f>'Projections by Veh Type'!R27/'Projections by Veh Type'!$F27</f>
+        <v>2.0985342139633012</v>
       </c>
       <c r="O3" s="3">
-        <f>'Projections by Veh Type'!Q27/'Projections by Veh Type'!$D27</f>
-        <v>2.2514882193650285</v>
+        <f>'Projections by Veh Type'!S27/'Projections by Veh Type'!$F27</f>
+        <v>2.2460035407607437</v>
       </c>
       <c r="P3" s="3">
-        <f>'Projections by Veh Type'!R27/'Projections by Veh Type'!$D27</f>
-        <v>2.380610499848113</v>
+        <f>'Projections by Veh Type'!T27/'Projections by Veh Type'!$F27</f>
+        <v>2.3934728675581862</v>
       </c>
       <c r="Q3" s="3">
-        <f>'Projections by Veh Type'!S27/'Projections by Veh Type'!$D27</f>
-        <v>2.5479020433662418</v>
+        <f>'Projections by Veh Type'!U27/'Projections by Veh Type'!$F27</f>
+        <v>2.5409421943555714</v>
       </c>
       <c r="R3" s="3">
-        <f>'Projections by Veh Type'!T27/'Projections by Veh Type'!$D27</f>
-        <v>2.7151935868843706</v>
+        <f>'Projections by Veh Type'!V27/'Projections by Veh Type'!$F27</f>
+        <v>2.688411521153014</v>
       </c>
       <c r="S3" s="3">
-        <f>'Projections by Veh Type'!U27/'Projections by Veh Type'!$D27</f>
-        <v>2.882485130402435</v>
+        <f>'Projections by Veh Type'!W27/'Projections by Veh Type'!$F27</f>
+        <v>2.8358808479503992</v>
       </c>
       <c r="T3" s="3">
-        <f>'Projections by Veh Type'!V27/'Projections by Veh Type'!$D27</f>
-        <v>3.0497766739205638</v>
+        <f>'Projections by Veh Type'!X27/'Projections by Veh Type'!$F27</f>
+        <v>3.0164598023658633</v>
       </c>
       <c r="U3" s="3">
-        <f>'Projections by Veh Type'!W27/'Projections by Veh Type'!$D27</f>
-        <v>3.2170682174386283</v>
+        <f>'Projections by Veh Type'!Y27/'Projections by Veh Type'!$F27</f>
+        <v>3.1970387567812706</v>
       </c>
       <c r="V3" s="3">
-        <f>'Projections by Veh Type'!X27/'Projections by Veh Type'!$D27</f>
-        <v>3.4219198477206803</v>
+        <f>'Projections by Veh Type'!Z27/'Projections by Veh Type'!$F27</f>
+        <v>3.3776177111967343</v>
       </c>
       <c r="W3" s="3">
-        <f>'Projections by Veh Type'!Y27/'Projections by Veh Type'!$D27</f>
-        <v>3.6267714780026679</v>
+        <f>'Projections by Veh Type'!AA27/'Projections by Veh Type'!$F27</f>
+        <v>3.5581966656121984</v>
       </c>
       <c r="X3" s="3">
-        <f>'Projections by Veh Type'!Z27/'Projections by Veh Type'!$D27</f>
-        <v>3.8316231082847203</v>
+        <f>'Projections by Veh Type'!AB27/'Projections by Veh Type'!$F27</f>
+        <v>3.7387756200276621</v>
       </c>
       <c r="Y3" s="3">
-        <f>'Projections by Veh Type'!AA27/'Projections by Veh Type'!$D27</f>
-        <v>4.0364747385667723</v>
+        <f>'Projections by Veh Type'!AC27/'Projections by Veh Type'!$F27</f>
+        <v>3.9564459579807716</v>
       </c>
       <c r="Z3" s="3">
-        <f>'Projections by Veh Type'!AB27/'Projections by Veh Type'!$D27</f>
-        <v>4.2413263688488243</v>
+        <f>'Projections by Veh Type'!AD27/'Projections by Veh Type'!$F27</f>
+        <v>4.1741162959339375</v>
       </c>
       <c r="AA3" s="3">
-        <f>'Projections by Veh Type'!AC27/'Projections by Veh Type'!$D27</f>
-        <v>4.4882550529697314</v>
+        <f>'Projections by Veh Type'!AE27/'Projections by Veh Type'!$F27</f>
+        <v>4.3917866338870466</v>
       </c>
       <c r="AB3" s="3">
-        <f>'Projections by Veh Type'!AD27/'Projections by Veh Type'!$D27</f>
-        <v>4.7351837370907024</v>
+        <f>'Projections by Veh Type'!AF27/'Projections by Veh Type'!$F27</f>
+        <v>4.6094569718401566</v>
       </c>
       <c r="AC3" s="3">
-        <f>'Projections by Veh Type'!AE27/'Projections by Veh Type'!$D27</f>
-        <v>4.9821124212116086</v>
+        <f>'Projections by Veh Type'!AG27/'Projections by Veh Type'!$F27</f>
+        <v>4.8271273097932657</v>
       </c>
       <c r="AD3" s="3">
-        <f>'Projections by Veh Type'!AF27/'Projections by Veh Type'!$D27</f>
-        <v>5.2290411053325156</v>
+        <f>'Projections by Veh Type'!AH27/'Projections by Veh Type'!$F27</f>
+        <v>5.0870513163118307</v>
       </c>
       <c r="AE3" s="3">
-        <f>'Projections by Veh Type'!AG27/'Projections by Veh Type'!$D27</f>
-        <v>5.4759697894534218</v>
+        <f>'Projections by Veh Type'!AI27/'Projections by Veh Type'!$F27</f>
+        <v>5.3469753228303398</v>
       </c>
       <c r="AF3" s="3">
-        <f>'Projections by Veh Type'!AH27/'Projections by Veh Type'!$D27</f>
-        <v>5.7708317054343201</v>
+        <f>'Projections by Veh Type'!AJ27/'Projections by Veh Type'!$F27</f>
+        <v>5.6068993293489617</v>
       </c>
       <c r="AG3" s="3">
-        <f>'Projections by Veh Type'!AI27/'Projections by Veh Type'!$D27</f>
-        <v>6.0656936214151536</v>
+        <f>'Projections by Veh Type'!AK27/'Projections by Veh Type'!$F27</f>
+        <v>5.8668233358675845</v>
       </c>
       <c r="AH3" s="3">
-        <f>'Projections by Veh Type'!AJ27/'Projections by Veh Type'!$D27</f>
-        <v>6.3605555373961158</v>
-      </c>
-      <c r="AI3" s="3">
-        <f>'Projections by Veh Type'!AK27/'Projections by Veh Type'!$D27</f>
-        <v>6.655417453377078</v>
-      </c>
-    </row>
-    <row r="4" spans="1:35">
+        <f>'Projections by Veh Type'!AL27/'Projections by Veh Type'!$F27</f>
+        <v>6.1267473423860928</v>
+      </c>
+    </row>
+    <row r="4" spans="1:34">
       <c r="A4" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="3">
-        <f>'Projections by Veh Type'!C28/'Projections by Veh Type'!$C28</f>
+        <f>'Projections by Veh Type'!F28/'Projections by Veh Type'!$F28</f>
         <v>1</v>
       </c>
       <c r="C4" s="3">
-        <f>'Projections by Veh Type'!E28/'Projections by Veh Type'!$D28</f>
-        <v>1.0603403272315612</v>
+        <f>'Projections by Veh Type'!G28/'Projections by Veh Type'!$F28</f>
+        <v>1.0538425705764098</v>
       </c>
       <c r="D4" s="3">
-        <f>'Projections by Veh Type'!F28/'Projections by Veh Type'!$D28</f>
-        <v>1.1206806544631227</v>
+        <f>'Projections by Veh Type'!H28/'Projections by Veh Type'!$F28</f>
+        <v>1.1076851411528317</v>
       </c>
       <c r="E4" s="3">
-        <f>'Projections by Veh Type'!G28/'Projections by Veh Type'!$D28</f>
-        <v>1.1810209816946704</v>
+        <f>'Projections by Veh Type'!I28/'Projections by Veh Type'!$F28</f>
+        <v>1.1858160443160553</v>
       </c>
       <c r="F4" s="3">
-        <f>'Projections by Veh Type'!H28/'Projections by Veh Type'!$D28</f>
-        <v>1.2413613089262316</v>
+        <f>'Projections by Veh Type'!J28/'Projections by Veh Type'!$F28</f>
+        <v>1.2639469474792548</v>
       </c>
       <c r="G4" s="3">
-        <f>'Projections by Veh Type'!I28/'Projections by Veh Type'!$D28</f>
-        <v>1.3289211006169881</v>
+        <f>'Projections by Veh Type'!K28/'Projections by Veh Type'!$F28</f>
+        <v>1.3420778506424544</v>
       </c>
       <c r="H4" s="3">
-        <f>'Projections by Veh Type'!J28/'Projections by Veh Type'!$D28</f>
-        <v>1.4164808923077172</v>
+        <f>'Projections by Veh Type'!L28/'Projections by Veh Type'!$F28</f>
+        <v>1.420208753805678</v>
       </c>
       <c r="I4" s="3">
-        <f>'Projections by Veh Type'!K28/'Projections by Veh Type'!$D28</f>
-        <v>1.5040406839984466</v>
+        <f>'Projections by Veh Type'!M28/'Projections by Veh Type'!$F28</f>
+        <v>1.4983396569688776</v>
       </c>
       <c r="J4" s="3">
-        <f>'Projections by Veh Type'!L28/'Projections by Veh Type'!$D28</f>
-        <v>1.591600475689203</v>
+        <f>'Projections by Veh Type'!N28/'Projections by Veh Type'!$F28</f>
+        <v>1.6246662307502711</v>
       </c>
       <c r="K4" s="3">
-        <f>'Projections by Veh Type'!M28/'Projections by Veh Type'!$D28</f>
-        <v>1.6791602673799322</v>
+        <f>'Projections by Veh Type'!O28/'Projections by Veh Type'!$F28</f>
+        <v>1.7509928045316887</v>
       </c>
       <c r="L4" s="3">
-        <f>'Projections by Veh Type'!N28/'Projections by Veh Type'!$D28</f>
-        <v>1.8207320147613484</v>
+        <f>'Projections by Veh Type'!P28/'Projections by Veh Type'!$F28</f>
+        <v>1.8773193783131064</v>
       </c>
       <c r="M4" s="3">
-        <f>'Projections by Veh Type'!O28/'Projections by Veh Type'!$D28</f>
-        <v>1.9623037621427912</v>
+        <f>'Projections by Veh Type'!Q28/'Projections by Veh Type'!$F28</f>
+        <v>2.0036459520945238</v>
       </c>
       <c r="N4" s="3">
-        <f>'Projections by Veh Type'!P28/'Projections by Veh Type'!$D28</f>
-        <v>2.1038755095242343</v>
+        <f>'Projections by Veh Type'!R28/'Projections by Veh Type'!$F28</f>
+        <v>2.1299725258759414</v>
       </c>
       <c r="O4" s="3">
-        <f>'Projections by Veh Type'!Q28/'Projections by Veh Type'!$D28</f>
-        <v>2.2454472569056776</v>
+        <f>'Projections by Veh Type'!S28/'Projections by Veh Type'!$F28</f>
+        <v>2.2902086858923871</v>
       </c>
       <c r="P4" s="3">
-        <f>'Projections by Veh Type'!R28/'Projections by Veh Type'!$D28</f>
-        <v>2.3870190042871204</v>
+        <f>'Projections by Veh Type'!T28/'Projections by Veh Type'!$F28</f>
+        <v>2.4504448459087844</v>
       </c>
       <c r="Q4" s="3">
-        <f>'Projections by Veh Type'!S28/'Projections by Veh Type'!$D28</f>
-        <v>2.5665925689630082</v>
+        <f>'Projections by Veh Type'!U28/'Projections by Veh Type'!$F28</f>
+        <v>2.6106810059251817</v>
       </c>
       <c r="R4" s="3">
-        <f>'Projections by Veh Type'!T28/'Projections by Veh Type'!$D28</f>
-        <v>2.7461661336388419</v>
+        <f>'Projections by Veh Type'!V28/'Projections by Veh Type'!$F28</f>
+        <v>2.770917165941627</v>
       </c>
       <c r="S4" s="3">
-        <f>'Projections by Veh Type'!U28/'Projections by Veh Type'!$D28</f>
-        <v>2.9257396983146755</v>
+        <f>'Projections by Veh Type'!W28/'Projections by Veh Type'!$F28</f>
+        <v>2.9311533259580242</v>
       </c>
       <c r="T4" s="3">
-        <f>'Projections by Veh Type'!V28/'Projections by Veh Type'!$D28</f>
-        <v>3.1053132629905633</v>
+        <f>'Projections by Veh Type'!X28/'Projections by Veh Type'!$F28</f>
+        <v>3.2125766664696775</v>
       </c>
       <c r="U4" s="3">
-        <f>'Projections by Veh Type'!W28/'Projections by Veh Type'!$D28</f>
-        <v>3.2848868276663969</v>
+        <f>'Projections by Veh Type'!Y28/'Projections by Veh Type'!$F28</f>
+        <v>3.4940000069813304</v>
       </c>
       <c r="V4" s="3">
-        <f>'Projections by Veh Type'!X28/'Projections by Veh Type'!$D28</f>
-        <v>3.6002725210921946</v>
+        <f>'Projections by Veh Type'!Z28/'Projections by Veh Type'!$F28</f>
+        <v>3.7754233474929837</v>
       </c>
       <c r="W4" s="3">
-        <f>'Projections by Veh Type'!Y28/'Projections by Veh Type'!$D28</f>
-        <v>3.9156582145179923</v>
+        <f>'Projections by Veh Type'!AA28/'Projections by Veh Type'!$F28</f>
+        <v>4.0568466880045397</v>
       </c>
       <c r="X4" s="3">
-        <f>'Projections by Veh Type'!Z28/'Projections by Veh Type'!$D28</f>
-        <v>4.23104390794379</v>
+        <f>'Projections by Veh Type'!AB28/'Projections by Veh Type'!$F28</f>
+        <v>4.3382700285161935</v>
       </c>
       <c r="Y4" s="3">
-        <f>'Projections by Veh Type'!AA28/'Projections by Veh Type'!$D28</f>
-        <v>4.5464296013694794</v>
+        <f>'Projections by Veh Type'!AC28/'Projections by Veh Type'!$F28</f>
+        <v>4.6977284123881304</v>
       </c>
       <c r="Z4" s="3">
-        <f>'Projections by Veh Type'!AB28/'Projections by Veh Type'!$D28</f>
-        <v>4.8618152947952771</v>
+        <f>'Projections by Veh Type'!AD28/'Projections by Veh Type'!$F28</f>
+        <v>5.0571867962600674</v>
       </c>
       <c r="AA4" s="3">
-        <f>'Projections by Veh Type'!AC28/'Projections by Veh Type'!$D28</f>
-        <v>5.2646533516851353</v>
+        <f>'Projections by Veh Type'!AE28/'Projections by Veh Type'!$F28</f>
+        <v>5.4166451801320035</v>
       </c>
       <c r="AB4" s="3">
-        <f>'Projections by Veh Type'!AD28/'Projections by Veh Type'!$D28</f>
-        <v>5.6674914085749943</v>
+        <f>'Projections by Veh Type'!AF28/'Projections by Veh Type'!$F28</f>
+        <v>5.7761035640040372</v>
       </c>
       <c r="AC4" s="3">
-        <f>'Projections by Veh Type'!AE28/'Projections by Veh Type'!$D28</f>
-        <v>6.0703294654648525</v>
+        <f>'Projections by Veh Type'!AG28/'Projections by Veh Type'!$F28</f>
+        <v>6.1355619478759742</v>
       </c>
       <c r="AD4" s="3">
-        <f>'Projections by Veh Type'!AF28/'Projections by Veh Type'!$D28</f>
-        <v>6.4731675223548191</v>
+        <f>'Projections by Veh Type'!AH28/'Projections by Veh Type'!$F28</f>
+        <v>6.5646722122322094</v>
       </c>
       <c r="AE4" s="3">
-        <f>'Projections by Veh Type'!AG28/'Projections by Veh Type'!$D28</f>
-        <v>6.8760055792446781</v>
+        <f>'Projections by Veh Type'!AI28/'Projections by Veh Type'!$F28</f>
+        <v>6.9937824765881542</v>
       </c>
       <c r="AF4" s="3">
-        <f>'Projections by Veh Type'!AH28/'Projections by Veh Type'!$D28</f>
-        <v>7.3569011511402671</v>
+        <f>'Projections by Veh Type'!AJ28/'Projections by Veh Type'!$F28</f>
+        <v>7.4228927409440999</v>
       </c>
       <c r="AG4" s="3">
-        <f>'Projections by Veh Type'!AI28/'Projections by Veh Type'!$D28</f>
-        <v>7.8377967230355319</v>
+        <f>'Projections by Veh Type'!AK28/'Projections by Veh Type'!$F28</f>
+        <v>7.8520030053000456</v>
       </c>
       <c r="AH4" s="3">
-        <f>'Projections by Veh Type'!AJ28/'Projections by Veh Type'!$D28</f>
-        <v>8.3186922949307966</v>
-      </c>
-      <c r="AI4" s="3">
-        <f>'Projections by Veh Type'!AK28/'Projections by Veh Type'!$D28</f>
-        <v>8.7995878668260605</v>
-      </c>
-    </row>
-    <row r="5" spans="1:35">
+        <f>'Projections by Veh Type'!AL28/'Projections by Veh Type'!$F28</f>
+        <v>8.2811132696559913</v>
+      </c>
+    </row>
+    <row r="5" spans="1:34">
       <c r="A5" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="3">
-        <f>'Projections by Veh Type'!C29/'Projections by Veh Type'!$C29</f>
+        <f>'Projections by Veh Type'!F29/'Projections by Veh Type'!$F29</f>
         <v>1</v>
       </c>
       <c r="C5" s="3">
-        <f>'Projections by Veh Type'!E29/'Projections by Veh Type'!$D29</f>
-        <v>1.0584013857955907</v>
+        <f>'Projections by Veh Type'!G29/'Projections by Veh Type'!$F29</f>
+        <v>1.0522933746953211</v>
       </c>
       <c r="D5" s="3">
-        <f>'Projections by Veh Type'!F29/'Projections by Veh Type'!$D29</f>
-        <v>1.1168027715911815</v>
+        <f>'Projections by Veh Type'!H29/'Projections by Veh Type'!$F29</f>
+        <v>1.1045867493906421</v>
       </c>
       <c r="E5" s="3">
-        <f>'Projections by Veh Type'!G29/'Projections by Veh Type'!$D29</f>
-        <v>1.1752041573867722</v>
+        <f>'Projections by Veh Type'!I29/'Projections by Veh Type'!$F29</f>
+        <v>1.1706182140483039</v>
       </c>
       <c r="F5" s="3">
-        <f>'Projections by Veh Type'!H29/'Projections by Veh Type'!$D29</f>
-        <v>1.2336055431823629</v>
+        <f>'Projections by Veh Type'!J29/'Projections by Veh Type'!$F29</f>
+        <v>1.2366496787059493</v>
       </c>
       <c r="G5" s="3">
-        <f>'Projections by Veh Type'!I29/'Projections by Veh Type'!$D29</f>
-        <v>1.3073496659242645</v>
+        <f>'Projections by Veh Type'!K29/'Projections by Veh Type'!$F29</f>
+        <v>1.302681143363611</v>
       </c>
       <c r="H5" s="3">
-        <f>'Projections by Veh Type'!J29/'Projections by Veh Type'!$D29</f>
-        <v>1.3810937886661483</v>
+        <f>'Projections by Veh Type'!L29/'Projections by Veh Type'!$F29</f>
+        <v>1.3687126080212728</v>
       </c>
       <c r="I5" s="3">
-        <f>'Projections by Veh Type'!K29/'Projections by Veh Type'!$D29</f>
-        <v>1.4548379114080499</v>
+        <f>'Projections by Veh Type'!M29/'Projections by Veh Type'!$F29</f>
+        <v>1.4347440726789182</v>
       </c>
       <c r="J5" s="3">
-        <f>'Projections by Veh Type'!L29/'Projections by Veh Type'!$D29</f>
-        <v>1.5285820341499516</v>
+        <f>'Projections by Veh Type'!N29/'Projections by Veh Type'!$F29</f>
+        <v>1.5114114779525847</v>
       </c>
       <c r="K5" s="3">
-        <f>'Projections by Veh Type'!M29/'Projections by Veh Type'!$D29</f>
-        <v>1.6023261568918354</v>
+        <f>'Projections by Veh Type'!O29/'Projections by Veh Type'!$F29</f>
+        <v>1.5880788832262187</v>
       </c>
       <c r="L5" s="3">
-        <f>'Projections by Veh Type'!N29/'Projections by Veh Type'!$D29</f>
-        <v>1.6879485275921702</v>
+        <f>'Projections by Veh Type'!P29/'Projections by Veh Type'!$F29</f>
+        <v>1.6647462884998849</v>
       </c>
       <c r="M5" s="3">
-        <f>'Projections by Veh Type'!O29/'Projections by Veh Type'!$D29</f>
-        <v>1.7735708982924692</v>
+        <f>'Projections by Veh Type'!Q29/'Projections by Veh Type'!$F29</f>
+        <v>1.7414136937735512</v>
       </c>
       <c r="N5" s="3">
-        <f>'Projections by Veh Type'!P29/'Projections by Veh Type'!$D29</f>
-        <v>1.8591932689928039</v>
+        <f>'Projections by Veh Type'!R29/'Projections by Veh Type'!$F29</f>
+        <v>1.8180810990471852</v>
       </c>
       <c r="O5" s="3">
-        <f>'Projections by Veh Type'!Q29/'Projections by Veh Type'!$D29</f>
-        <v>1.9448156396931389</v>
+        <f>'Projections by Veh Type'!S29/'Projections by Veh Type'!$F29</f>
+        <v>1.901174385109671</v>
       </c>
       <c r="P5" s="3">
-        <f>'Projections by Veh Type'!R29/'Projections by Veh Type'!$D29</f>
-        <v>2.0304380103934379</v>
+        <f>'Projections by Veh Type'!T29/'Projections by Veh Type'!$F29</f>
+        <v>1.9842676711721565</v>
       </c>
       <c r="Q5" s="3">
-        <f>'Projections by Veh Type'!S29/'Projections by Veh Type'!$D29</f>
-        <v>2.1232368225686407</v>
+        <f>'Projections by Veh Type'!U29/'Projections by Veh Type'!$F29</f>
+        <v>2.0673609572346421</v>
       </c>
       <c r="R5" s="3">
-        <f>'Projections by Veh Type'!T29/'Projections by Veh Type'!$D29</f>
-        <v>2.2160356347438435</v>
+        <f>'Projections by Veh Type'!V29/'Projections by Veh Type'!$F29</f>
+        <v>2.1504542432971276</v>
       </c>
       <c r="S5" s="3">
-        <f>'Projections by Veh Type'!U29/'Projections by Veh Type'!$D29</f>
-        <v>2.3088344469190463</v>
+        <f>'Projections by Veh Type'!W29/'Projections by Veh Type'!$F29</f>
+        <v>2.2335475293596132</v>
       </c>
       <c r="T5" s="3">
-        <f>'Projections by Veh Type'!V29/'Projections by Veh Type'!$D29</f>
-        <v>2.4016332590942491</v>
+        <f>'Projections by Veh Type'!X29/'Projections by Veh Type'!$F29</f>
+        <v>2.3177487259029319</v>
       </c>
       <c r="U5" s="3">
-        <f>'Projections by Veh Type'!W29/'Projections by Veh Type'!$D29</f>
-        <v>2.4944320712694519</v>
+        <f>'Projections by Veh Type'!Y29/'Projections by Veh Type'!$F29</f>
+        <v>2.4019499224462511</v>
       </c>
       <c r="V5" s="3">
-        <f>'Projections by Veh Type'!X29/'Projections by Veh Type'!$D29</f>
-        <v>2.5884682009403241</v>
+        <f>'Projections by Veh Type'!Z29/'Projections by Veh Type'!$F29</f>
+        <v>2.4861511189895698</v>
       </c>
       <c r="W5" s="3">
-        <f>'Projections by Veh Type'!Y29/'Projections by Veh Type'!$D29</f>
-        <v>2.6825043306111964</v>
+        <f>'Projections by Veh Type'!AA29/'Projections by Veh Type'!$F29</f>
+        <v>2.5703523155328885</v>
       </c>
       <c r="X5" s="3">
-        <f>'Projections by Veh Type'!Z29/'Projections by Veh Type'!$D29</f>
-        <v>2.7765404602820682</v>
+        <f>'Projections by Veh Type'!AB29/'Projections by Veh Type'!$F29</f>
+        <v>2.6545535120762072</v>
       </c>
       <c r="Y5" s="3">
-        <f>'Projections by Veh Type'!AA29/'Projections by Veh Type'!$D29</f>
-        <v>2.8705765899529405</v>
+        <f>'Projections by Veh Type'!AC29/'Projections by Veh Type'!$F29</f>
+        <v>2.7345446487923728</v>
       </c>
       <c r="Z5" s="3">
-        <f>'Projections by Veh Type'!AB29/'Projections by Veh Type'!$D29</f>
-        <v>2.9646127196238128</v>
+        <f>'Projections by Veh Type'!AD29/'Projections by Veh Type'!$F29</f>
+        <v>2.8145357855085065</v>
       </c>
       <c r="AA5" s="3">
-        <f>'Projections by Veh Type'!AC29/'Projections by Veh Type'!$D29</f>
-        <v>3.0539470428111559</v>
+        <f>'Projections by Veh Type'!AE29/'Projections by Veh Type'!$F29</f>
+        <v>2.8945269222246721</v>
       </c>
       <c r="AB5" s="3">
-        <f>'Projections by Veh Type'!AD29/'Projections by Veh Type'!$D29</f>
-        <v>3.1432813659984626</v>
+        <f>'Projections by Veh Type'!AF29/'Projections by Veh Type'!$F29</f>
+        <v>2.9745180589408378</v>
       </c>
       <c r="AC5" s="3">
-        <f>'Projections by Veh Type'!AE29/'Projections by Veh Type'!$D29</f>
-        <v>3.2326156891858058</v>
+        <f>'Projections by Veh Type'!AG29/'Projections by Veh Type'!$F29</f>
+        <v>3.0545091956569714</v>
       </c>
       <c r="AD5" s="3">
-        <f>'Projections by Veh Type'!AF29/'Projections by Veh Type'!$D29</f>
-        <v>3.3219500123731489</v>
+        <f>'Projections by Veh Type'!AH29/'Projections by Veh Type'!$F29</f>
+        <v>3.1260802127187666</v>
       </c>
       <c r="AE5" s="3">
-        <f>'Projections by Veh Type'!AG29/'Projections by Veh Type'!$D29</f>
-        <v>3.4112843355604556</v>
+        <f>'Projections by Veh Type'!AI29/'Projections by Veh Type'!$F29</f>
+        <v>3.1976512297805937</v>
       </c>
       <c r="AF5" s="3">
-        <f>'Projections by Veh Type'!AH29/'Projections by Veh Type'!$D29</f>
-        <v>3.4912150457806681</v>
+        <f>'Projections by Veh Type'!AJ29/'Projections by Veh Type'!$F29</f>
+        <v>3.2692222468424212</v>
       </c>
       <c r="AG5" s="3">
-        <f>'Projections by Veh Type'!AI29/'Projections by Veh Type'!$D29</f>
-        <v>3.571145756000917</v>
+        <f>'Projections by Veh Type'!AK29/'Projections by Veh Type'!$F29</f>
+        <v>3.3407932639042484</v>
       </c>
       <c r="AH5" s="3">
-        <f>'Projections by Veh Type'!AJ29/'Projections by Veh Type'!$D29</f>
-        <v>3.6510764662211654</v>
-      </c>
-      <c r="AI5" s="3">
-        <f>'Projections by Veh Type'!AK29/'Projections by Veh Type'!$D29</f>
-        <v>3.7310071764414139</v>
-      </c>
-    </row>
-    <row r="6" spans="1:35">
+        <f>'Projections by Veh Type'!AL29/'Projections by Veh Type'!$F29</f>
+        <v>3.4123642809660759</v>
+      </c>
+    </row>
+    <row r="6" spans="1:34">
       <c r="A6" t="s">
         <v>8</v>
       </c>
       <c r="B6" s="3">
-        <f>'Projections by Veh Type'!C30/'Projections by Veh Type'!$C30</f>
+        <f>'Projections by Veh Type'!F30/'Projections by Veh Type'!$F30</f>
         <v>1</v>
       </c>
       <c r="C6" s="3">
-        <f>'Projections by Veh Type'!E30/'Projections by Veh Type'!$D30</f>
-        <v>1.0584013857955907</v>
+        <f>'Projections by Veh Type'!G30/'Projections by Veh Type'!$F30</f>
+        <v>1.0522933746953211</v>
       </c>
       <c r="D6" s="3">
-        <f>'Projections by Veh Type'!F30/'Projections by Veh Type'!$D30</f>
-        <v>1.1168027715911815</v>
+        <f>'Projections by Veh Type'!H30/'Projections by Veh Type'!$F30</f>
+        <v>1.1045867493906421</v>
       </c>
       <c r="E6" s="3">
-        <f>'Projections by Veh Type'!G30/'Projections by Veh Type'!$D30</f>
-        <v>1.1752041573867722</v>
+        <f>'Projections by Veh Type'!I30/'Projections by Veh Type'!$F30</f>
+        <v>1.1706182140483039</v>
       </c>
       <c r="F6" s="3">
-        <f>'Projections by Veh Type'!H30/'Projections by Veh Type'!$D30</f>
-        <v>1.2336055431823629</v>
+        <f>'Projections by Veh Type'!J30/'Projections by Veh Type'!$F30</f>
+        <v>1.2366496787059493</v>
       </c>
       <c r="G6" s="3">
-        <f>'Projections by Veh Type'!I30/'Projections by Veh Type'!$D30</f>
-        <v>1.3073496659242645</v>
+        <f>'Projections by Veh Type'!K30/'Projections by Veh Type'!$F30</f>
+        <v>1.302681143363611</v>
       </c>
       <c r="H6" s="3">
-        <f>'Projections by Veh Type'!J30/'Projections by Veh Type'!$D30</f>
-        <v>1.3810937886661483</v>
+        <f>'Projections by Veh Type'!L30/'Projections by Veh Type'!$F30</f>
+        <v>1.3687126080212728</v>
       </c>
       <c r="I6" s="3">
-        <f>'Projections by Veh Type'!K30/'Projections by Veh Type'!$D30</f>
-        <v>1.4548379114080499</v>
+        <f>'Projections by Veh Type'!M30/'Projections by Veh Type'!$F30</f>
+        <v>1.4347440726789182</v>
       </c>
       <c r="J6" s="3">
-        <f>'Projections by Veh Type'!L30/'Projections by Veh Type'!$D30</f>
-        <v>1.5285820341499516</v>
+        <f>'Projections by Veh Type'!N30/'Projections by Veh Type'!$F30</f>
+        <v>1.5114114779525847</v>
       </c>
       <c r="K6" s="3">
-        <f>'Projections by Veh Type'!M30/'Projections by Veh Type'!$D30</f>
-        <v>1.6023261568918354</v>
+        <f>'Projections by Veh Type'!O30/'Projections by Veh Type'!$F30</f>
+        <v>1.5880788832262187</v>
       </c>
       <c r="L6" s="3">
-        <f>'Projections by Veh Type'!N30/'Projections by Veh Type'!$D30</f>
-        <v>1.6879485275921702</v>
+        <f>'Projections by Veh Type'!P30/'Projections by Veh Type'!$F30</f>
+        <v>1.6647462884998849</v>
       </c>
       <c r="M6" s="3">
-        <f>'Projections by Veh Type'!O30/'Projections by Veh Type'!$D30</f>
-        <v>1.7735708982924692</v>
+        <f>'Projections by Veh Type'!Q30/'Projections by Veh Type'!$F30</f>
+        <v>1.7414136937735512</v>
       </c>
       <c r="N6" s="3">
-        <f>'Projections by Veh Type'!P30/'Projections by Veh Type'!$D30</f>
-        <v>1.8591932689928039</v>
+        <f>'Projections by Veh Type'!R30/'Projections by Veh Type'!$F30</f>
+        <v>1.8180810990471852</v>
       </c>
       <c r="O6" s="3">
-        <f>'Projections by Veh Type'!Q30/'Projections by Veh Type'!$D30</f>
-        <v>1.9448156396931389</v>
+        <f>'Projections by Veh Type'!S30/'Projections by Veh Type'!$F30</f>
+        <v>1.901174385109671</v>
       </c>
       <c r="P6" s="3">
-        <f>'Projections by Veh Type'!R30/'Projections by Veh Type'!$D30</f>
-        <v>2.0304380103934379</v>
+        <f>'Projections by Veh Type'!T30/'Projections by Veh Type'!$F30</f>
+        <v>1.9842676711721565</v>
       </c>
       <c r="Q6" s="3">
-        <f>'Projections by Veh Type'!S30/'Projections by Veh Type'!$D30</f>
-        <v>2.1232368225686407</v>
+        <f>'Projections by Veh Type'!U30/'Projections by Veh Type'!$F30</f>
+        <v>2.0673609572346421</v>
       </c>
       <c r="R6" s="3">
-        <f>'Projections by Veh Type'!T30/'Projections by Veh Type'!$D30</f>
-        <v>2.2160356347438435</v>
+        <f>'Projections by Veh Type'!V30/'Projections by Veh Type'!$F30</f>
+        <v>2.1504542432971276</v>
       </c>
       <c r="S6" s="3">
-        <f>'Projections by Veh Type'!U30/'Projections by Veh Type'!$D30</f>
-        <v>2.3088344469190463</v>
+        <f>'Projections by Veh Type'!W30/'Projections by Veh Type'!$F30</f>
+        <v>2.2335475293596132</v>
       </c>
       <c r="T6" s="3">
-        <f>'Projections by Veh Type'!V30/'Projections by Veh Type'!$D30</f>
-        <v>2.4016332590942491</v>
+        <f>'Projections by Veh Type'!X30/'Projections by Veh Type'!$F30</f>
+        <v>2.3177487259029319</v>
       </c>
       <c r="U6" s="3">
-        <f>'Projections by Veh Type'!W30/'Projections by Veh Type'!$D30</f>
-        <v>2.4944320712694519</v>
+        <f>'Projections by Veh Type'!Y30/'Projections by Veh Type'!$F30</f>
+        <v>2.4019499224462511</v>
       </c>
       <c r="V6" s="3">
-        <f>'Projections by Veh Type'!X30/'Projections by Veh Type'!$D30</f>
-        <v>2.5884682009403241</v>
+        <f>'Projections by Veh Type'!Z30/'Projections by Veh Type'!$F30</f>
+        <v>2.4861511189895698</v>
       </c>
       <c r="W6" s="3">
-        <f>'Projections by Veh Type'!Y30/'Projections by Veh Type'!$D30</f>
-        <v>2.6825043306111964</v>
+        <f>'Projections by Veh Type'!AA30/'Projections by Veh Type'!$F30</f>
+        <v>2.5703523155328885</v>
       </c>
       <c r="X6" s="3">
-        <f>'Projections by Veh Type'!Z30/'Projections by Veh Type'!$D30</f>
-        <v>2.7765404602820682</v>
+        <f>'Projections by Veh Type'!AB30/'Projections by Veh Type'!$F30</f>
+        <v>2.6545535120762072</v>
       </c>
       <c r="Y6" s="3">
-        <f>'Projections by Veh Type'!AA30/'Projections by Veh Type'!$D30</f>
-        <v>2.8705765899529405</v>
+        <f>'Projections by Veh Type'!AC30/'Projections by Veh Type'!$F30</f>
+        <v>2.7345446487923728</v>
       </c>
       <c r="Z6" s="3">
-        <f>'Projections by Veh Type'!AB30/'Projections by Veh Type'!$D30</f>
-        <v>2.9646127196238128</v>
+        <f>'Projections by Veh Type'!AD30/'Projections by Veh Type'!$F30</f>
+        <v>2.8145357855085065</v>
       </c>
       <c r="AA6" s="3">
-        <f>'Projections by Veh Type'!AC30/'Projections by Veh Type'!$D30</f>
-        <v>3.0539470428111559</v>
+        <f>'Projections by Veh Type'!AE30/'Projections by Veh Type'!$F30</f>
+        <v>2.8945269222246721</v>
       </c>
       <c r="AB6" s="3">
-        <f>'Projections by Veh Type'!AD30/'Projections by Veh Type'!$D30</f>
-        <v>3.1432813659984626</v>
+        <f>'Projections by Veh Type'!AF30/'Projections by Veh Type'!$F30</f>
+        <v>2.9745180589408378</v>
       </c>
       <c r="AC6" s="3">
-        <f>'Projections by Veh Type'!AE30/'Projections by Veh Type'!$D30</f>
-        <v>3.2326156891858058</v>
+        <f>'Projections by Veh Type'!AG30/'Projections by Veh Type'!$F30</f>
+        <v>3.0545091956569714</v>
       </c>
       <c r="AD6" s="3">
-        <f>'Projections by Veh Type'!AF30/'Projections by Veh Type'!$D30</f>
-        <v>3.3219500123731489</v>
+        <f>'Projections by Veh Type'!AH30/'Projections by Veh Type'!$F30</f>
+        <v>3.1260802127187666</v>
       </c>
       <c r="AE6" s="3">
-        <f>'Projections by Veh Type'!AG30/'Projections by Veh Type'!$D30</f>
-        <v>3.4112843355604556</v>
+        <f>'Projections by Veh Type'!AI30/'Projections by Veh Type'!$F30</f>
+        <v>3.1976512297805937</v>
       </c>
       <c r="AF6" s="3">
-        <f>'Projections by Veh Type'!AH30/'Projections by Veh Type'!$D30</f>
-        <v>3.4912150457806681</v>
+        <f>'Projections by Veh Type'!AJ30/'Projections by Veh Type'!$F30</f>
+        <v>3.2692222468424212</v>
       </c>
       <c r="AG6" s="3">
-        <f>'Projections by Veh Type'!AI30/'Projections by Veh Type'!$D30</f>
-        <v>3.571145756000917</v>
+        <f>'Projections by Veh Type'!AK30/'Projections by Veh Type'!$F30</f>
+        <v>3.3407932639042484</v>
       </c>
       <c r="AH6" s="3">
-        <f>'Projections by Veh Type'!AJ30/'Projections by Veh Type'!$D30</f>
-        <v>3.6510764662211654</v>
-      </c>
-      <c r="AI6" s="3">
-        <f>'Projections by Veh Type'!AK30/'Projections by Veh Type'!$D30</f>
-        <v>3.7310071764414139</v>
-      </c>
-    </row>
-    <row r="7" spans="1:35">
+        <f>'Projections by Veh Type'!AL30/'Projections by Veh Type'!$F30</f>
+        <v>3.4123642809660759</v>
+      </c>
+    </row>
+    <row r="7" spans="1:34">
       <c r="A7" t="s">
         <v>9</v>
       </c>
       <c r="B7" s="3">
-        <f>'Projections by Veh Type'!C31/'Projections by Veh Type'!$C31</f>
+        <f>'Projections by Veh Type'!F31/'Projections by Veh Type'!$F31</f>
         <v>1</v>
       </c>
       <c r="C7" s="3">
-        <f>'Projections by Veh Type'!E31/'Projections by Veh Type'!$D31</f>
-        <v>1.0602269160569811</v>
+        <f>'Projections by Veh Type'!G31/'Projections by Veh Type'!$F31</f>
+        <v>1.0537522513920541</v>
       </c>
       <c r="D7" s="3">
-        <f>'Projections by Veh Type'!F31/'Projections by Veh Type'!$D31</f>
-        <v>1.1204538321139801</v>
+        <f>'Projections by Veh Type'!H31/'Projections by Veh Type'!$F31</f>
+        <v>1.1075045027841079</v>
       </c>
       <c r="E7" s="3">
-        <f>'Projections by Veh Type'!G31/'Projections by Veh Type'!$D31</f>
-        <v>1.1806807481709609</v>
+        <f>'Projections by Veh Type'!I31/'Projections by Veh Type'!$F31</f>
+        <v>1.1519802138114337</v>
       </c>
       <c r="F7" s="3">
-        <f>'Projections by Veh Type'!H31/'Projections by Veh Type'!$D31</f>
-        <v>1.240907664227942</v>
+        <f>'Projections by Veh Type'!J31/'Projections by Veh Type'!$F31</f>
+        <v>1.1964559248387594</v>
       </c>
       <c r="G7" s="3">
-        <f>'Projections by Veh Type'!I31/'Projections by Veh Type'!$D31</f>
-        <v>1.2907406450845029</v>
+        <f>'Projections by Veh Type'!K31/'Projections by Veh Type'!$F31</f>
+        <v>1.2409316358660689</v>
       </c>
       <c r="H7" s="3">
-        <f>'Projections by Veh Type'!J31/'Projections by Veh Type'!$D31</f>
-        <v>1.3405736259410641</v>
+        <f>'Projections by Veh Type'!L31/'Projections by Veh Type'!$F31</f>
+        <v>1.2854073468933784</v>
       </c>
       <c r="I7" s="3">
-        <f>'Projections by Veh Type'!K31/'Projections by Veh Type'!$D31</f>
-        <v>1.3904066067976069</v>
+        <f>'Projections by Veh Type'!M31/'Projections by Veh Type'!$F31</f>
+        <v>1.3298830579207042</v>
       </c>
       <c r="J7" s="3">
-        <f>'Projections by Veh Type'!L31/'Projections by Veh Type'!$D31</f>
-        <v>1.4402395876541498</v>
+        <f>'Projections by Veh Type'!N31/'Projections by Veh Type'!$F31</f>
+        <v>1.3808388043505511</v>
       </c>
       <c r="K7" s="3">
-        <f>'Projections by Veh Type'!M31/'Projections by Veh Type'!$D31</f>
-        <v>1.490072568510711</v>
+        <f>'Projections by Veh Type'!O31/'Projections by Veh Type'!$F31</f>
+        <v>1.431794550780398</v>
       </c>
       <c r="L7" s="3">
-        <f>'Projections by Veh Type'!N31/'Projections by Veh Type'!$D31</f>
-        <v>1.5471661298662611</v>
+        <f>'Projections by Veh Type'!P31/'Projections by Veh Type'!$F31</f>
+        <v>1.4827502972102287</v>
       </c>
       <c r="M7" s="3">
-        <f>'Projections by Veh Type'!O31/'Projections by Veh Type'!$D31</f>
-        <v>1.6042596912218114</v>
+        <f>'Projections by Veh Type'!Q31/'Projections by Veh Type'!$F31</f>
+        <v>1.5337060436400756</v>
       </c>
       <c r="N7" s="3">
-        <f>'Projections by Veh Type'!P31/'Projections by Veh Type'!$D31</f>
-        <v>1.6613532525773436</v>
+        <f>'Projections by Veh Type'!R31/'Projections by Veh Type'!$F31</f>
+        <v>1.5846617900699225</v>
       </c>
       <c r="O7" s="3">
-        <f>'Projections by Veh Type'!Q31/'Projections by Veh Type'!$D31</f>
-        <v>1.7184468139328937</v>
+        <f>'Projections by Veh Type'!S31/'Projections by Veh Type'!$F31</f>
+        <v>1.6454141587969791</v>
       </c>
       <c r="P7" s="3">
-        <f>'Projections by Veh Type'!R31/'Projections by Veh Type'!$D31</f>
-        <v>1.775540375288444</v>
+        <f>'Projections by Veh Type'!T31/'Projections by Veh Type'!$F31</f>
+        <v>1.7061665275240359</v>
       </c>
       <c r="Q7" s="3">
-        <f>'Projections by Veh Type'!S31/'Projections by Veh Type'!$D31</f>
-        <v>1.843610599638676</v>
+        <f>'Projections by Veh Type'!U31/'Projections by Veh Type'!$F31</f>
+        <v>1.7669188962510924</v>
       </c>
       <c r="R7" s="3">
-        <f>'Projections by Veh Type'!T31/'Projections by Veh Type'!$D31</f>
-        <v>1.9116808239889083</v>
+        <f>'Projections by Veh Type'!V31/'Projections by Veh Type'!$F31</f>
+        <v>1.8276712649781492</v>
       </c>
       <c r="S7" s="3">
-        <f>'Projections by Veh Type'!U31/'Projections by Veh Type'!$D31</f>
-        <v>1.9797510483391405</v>
+        <f>'Projections by Veh Type'!W31/'Projections by Veh Type'!$F31</f>
+        <v>1.8884236337052058</v>
       </c>
       <c r="T7" s="3">
-        <f>'Projections by Veh Type'!V31/'Projections by Veh Type'!$D31</f>
-        <v>2.0478212726893728</v>
+        <f>'Projections by Veh Type'!X31/'Projections by Veh Type'!$F31</f>
+        <v>1.9608806703362469</v>
       </c>
       <c r="U7" s="3">
-        <f>'Projections by Veh Type'!W31/'Projections by Veh Type'!$D31</f>
-        <v>2.115891497039605</v>
+        <f>'Projections by Veh Type'!Y31/'Projections by Veh Type'!$F31</f>
+        <v>2.0333377069673366</v>
       </c>
       <c r="V7" s="3">
-        <f>'Projections by Veh Type'!X31/'Projections by Veh Type'!$D31</f>
-        <v>2.1970762613964778</v>
+        <f>'Projections by Veh Type'!Z31/'Projections by Veh Type'!$F31</f>
+        <v>2.1057947435983939</v>
       </c>
       <c r="W7" s="3">
-        <f>'Projections by Veh Type'!Y31/'Projections by Veh Type'!$D31</f>
-        <v>2.2782610257534053</v>
+        <f>'Projections by Veh Type'!AA31/'Projections by Veh Type'!$F31</f>
+        <v>2.1782517802294517</v>
       </c>
       <c r="X7" s="3">
-        <f>'Projections by Veh Type'!Z31/'Projections by Veh Type'!$D31</f>
-        <v>2.3594457901102968</v>
+        <f>'Projections by Veh Type'!AB31/'Projections by Veh Type'!$F31</f>
+        <v>2.2507088168605089</v>
       </c>
       <c r="Y7" s="3">
-        <f>'Projections by Veh Type'!AA31/'Projections by Veh Type'!$D31</f>
-        <v>2.4406305544671878</v>
+        <f>'Projections by Veh Type'!AC31/'Projections by Veh Type'!$F31</f>
+        <v>2.3371382346969636</v>
       </c>
       <c r="Z7" s="3">
-        <f>'Projections by Veh Type'!AB31/'Projections by Veh Type'!$D31</f>
-        <v>2.5218153188240793</v>
+        <f>'Projections by Veh Type'!AD31/'Projections by Veh Type'!$F31</f>
+        <v>2.4235676525334022</v>
       </c>
       <c r="AA7" s="3">
-        <f>'Projections by Veh Type'!AC31/'Projections by Veh Type'!$D31</f>
-        <v>2.6186554912463151</v>
+        <f>'Projections by Veh Type'!AE31/'Projections by Veh Type'!$F31</f>
+        <v>2.5099970703698085</v>
       </c>
       <c r="AB7" s="3">
-        <f>'Projections by Veh Type'!AD31/'Projections by Veh Type'!$D31</f>
-        <v>2.7154956636685332</v>
+        <f>'Projections by Veh Type'!AF31/'Projections by Veh Type'!$F31</f>
+        <v>2.5964264882062467</v>
       </c>
       <c r="AC7" s="3">
-        <f>'Projections by Veh Type'!AE31/'Projections by Veh Type'!$D31</f>
-        <v>2.8123358360907149</v>
+        <f>'Projections by Veh Type'!AG31/'Projections by Veh Type'!$F31</f>
+        <v>2.6828559060426853</v>
       </c>
       <c r="AD7" s="3">
-        <f>'Projections by Veh Type'!AF31/'Projections by Veh Type'!$D31</f>
-        <v>2.9091760085129326</v>
+        <f>'Projections by Veh Type'!AH31/'Projections by Veh Type'!$F31</f>
+        <v>2.785967481127769</v>
       </c>
       <c r="AE7" s="3">
-        <f>'Projections by Veh Type'!AG31/'Projections by Veh Type'!$D31</f>
-        <v>3.0060161809351507</v>
+        <f>'Projections by Veh Type'!AI31/'Projections by Veh Type'!$F31</f>
+        <v>2.8890790562128208</v>
       </c>
       <c r="AF7" s="3">
-        <f>'Projections by Veh Type'!AH31/'Projections by Veh Type'!$D31</f>
-        <v>3.1215479403745414</v>
+        <f>'Projections by Veh Type'!AJ31/'Projections by Veh Type'!$F31</f>
+        <v>2.9921906312978725</v>
       </c>
       <c r="AG7" s="3">
-        <f>'Projections by Veh Type'!AI31/'Projections by Veh Type'!$D31</f>
-        <v>3.2370796998138958</v>
+        <f>'Projections by Veh Type'!AK31/'Projections by Veh Type'!$F31</f>
+        <v>3.0953022063829239</v>
       </c>
       <c r="AH7" s="3">
-        <f>'Projections by Veh Type'!AJ31/'Projections by Veh Type'!$D31</f>
-        <v>3.3526114592532501</v>
-      </c>
-      <c r="AI7" s="3">
-        <f>'Projections by Veh Type'!AK31/'Projections by Veh Type'!$D31</f>
-        <v>3.4681432186926049</v>
+        <f>'Projections by Veh Type'!AL31/'Projections by Veh Type'!$F31</f>
+        <v>3.1984137814679756</v>
       </c>
     </row>
   </sheetData>
